--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -575,7 +575,7 @@
         <v>45187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45232</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45993.5589699074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45509.44369212963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45770.56108796296</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45798.47107638889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45400.47915509259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45425.41545138889</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45728.47916666666</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45905.440625</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>45717.39260416666</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44530</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44965</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44977</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>45558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>44760</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>44742.43836805555</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44242</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44284</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44378.3903587963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>44441.59993055555</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>44810</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44386.86407407407</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44266.62798611111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44358.30866898148</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44508</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44323</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44358.34570601852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>44417.62429398148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44250</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44866.60554398148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44266.49640046297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44529.56993055555</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44615</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44802</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44802</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44802</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44353.85783564814</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44578.43284722222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44817.72686342592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44547.36016203704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44691</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44887.39527777778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44386</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44284</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44824.59596064815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44378.38956018518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44244</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44767.45964120371</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44273</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44365</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44845.47885416666</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44358.29576388889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44873.58728009259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44425.57732638889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44287.49908564815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44428</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44273.57444444444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44305</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44272.63491898148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44414.48363425926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44824.59288194445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44406</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44585.71317129629</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44715</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44358.29001157408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44606.55068287037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44544.51118055556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>44809</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44594.62553240741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44739.48693287037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44473.5024537037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44473.50425925926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44748</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44488</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44558.62664351852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>44840</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>44614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44867.59149305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44285</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44400</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44802</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44344.39539351852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44855.44949074074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44571.74010416667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44840</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44638.52920138889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44299</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44246</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44343</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44454.32325231482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44273</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44735</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44358.31386574074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44353</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44353</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44662.24118055555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44606.55320601852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44753.28717592593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44454</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44606</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>44550.52243055555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>44239</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>44365.48976851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>44544</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>44550.52158564814</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>44482.31039351852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>44945.46364583333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>45385.33501157408</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44489</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>45212.6421875</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45364.56442129629</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>44803</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>44551.88674768519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>44340.41997685185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45590.61549768518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>45093</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45414.78167824074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>45585.91030092593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>45119</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45735.51754629629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>45212.61796296296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>45357.42123842592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>45008.49725694444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>45360.80607638889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>45337.58814814815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>45174</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45191</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>45730.51931712963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45772.79462962963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>45680.55241898148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>45715.37373842593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44455.47987268519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>45211.5600462963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>45635.63982638889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44840.48019675926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>45503.29950231482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>45737.48446759259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>45719.68841435185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>45719.69400462963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44432.60353009259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>45404.46775462963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>45404.475</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44558.65225694444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44951.68246527778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44365.59041666667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>45758.3190625</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>45517</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44952</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44853.68696759259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>45331.43450231481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>45729.41030092593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>45799.53121527778</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>45163</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45545.52421296296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45727.73561342592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45740.73518518519</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44739.59581018519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>45884.56103009259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45629.55097222222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45736.47740740741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45322</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>45355.35863425926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>45729.40451388889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45729.40857638889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>45736.47576388889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>45737.48658564815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45735.58962962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>45727.61900462963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45728.48721064815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>45728.48363425926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45494</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>45735.59598379629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>45730.52662037037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>45733.54864583333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>45733.55269675926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>45709</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45803.34383101852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44553.46798611111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44594.61658564815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44931</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44356</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>45642.95520833333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>45884.57325231482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45511</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44986</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>45607.49489583333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44840.48739583333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>45804.61609953704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>45804.61944444444</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44883</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>45805.34600694444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45054.39552083334</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>45244.68857638889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>45804.62068287037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>45264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>45804.65353009259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44923</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>45629.55606481482</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>45400.32546296297</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45804.61416666667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>45385.33305555556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>45810</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45706.58354166667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>45273.71439814815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44657.63938657408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>45617.44547453704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>45889.65611111111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45889.6637962963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>45198</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45810.34222222222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45810.34775462963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45813.53417824074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45698.3561574074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>45888.36394675926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45889.64594907407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>45887.80711805556</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>45812.61347222222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45812.65081018519</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45811.78976851852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>45813.5249537037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>45811.92189814815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>45813.55363425926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>45813.55480324074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44896</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>45266.4074537037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44275.78903935185</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45838.92648148148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45735.57356481482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45735.5909375</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>45588.65200231481</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44974.69614583333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>45817.02725694444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>45817.46300925926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44489</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>45198</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>45104.60037037037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>45897.55211805556</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>45720</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45159.39725694444</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>45900.71957175926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45561.30137731481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>45582.30001157407</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45629.54733796296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>45898</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45818</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45790.3634375</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45771.47091435185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45901.38729166667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>45819.71221064815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45818.39450231481</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45615.26976851852</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45748.85103009259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45753.41890046297</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45820.52103009259</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45687.62136574074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>45687.62925925926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44860</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>45902.47337962963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>45235</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>45902.6129050926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44867.32956018519</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45904.45391203704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>44820.44133101852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45498.32634259259</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>45905.43704861111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>45824.32594907407</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>44396.55261574074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45264</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>45908.56534722223</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>45824.3162037037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45825.56981481481</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45825.5734837963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>45908.84606481482</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>45699.70334490741</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>45702.40758101852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>45905</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>45204.60837962963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>45910.59189814814</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45910.57027777778</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45838.43341435185</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45824.50456018518</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>45910.23809027778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>45825.52016203704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
         <v>45825.57106481482</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45911.42458333333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>45882.63118055555</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>45827.36391203704</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>45790.35498842593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45910.24565972222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45910.58902777778</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45520</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45520</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45912.5659837963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44896</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45190</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>45717.37541666667</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>45912.26643518519</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>45826.31435185186</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>45678.64009259259</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44563</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>45916.35369212963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>45831.4978125</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>45916.35141203704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45917.63487268519</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>45831.33459490741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44271.52563657407</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>45916.34912037037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>45831.37350694444</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>45118.70503472222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>45831.57614583334</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>45831.34222222222</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>45831.33755787037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>45918.61972222223</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20461,7 +20461,7 @@
         <v>45918.50519675926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>45918.66293981481</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45922</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>45730.51604166667</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45730.59303240741</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>45832.85799768518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>45735.50659722222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>45607.50800925926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>45924.37596064815</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44441.59430555555</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>45831.36936342593</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>45709.7199537037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45182.71399305556</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45666.56546296296</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44923.29418981481</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45833.59633101852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>45630.59774305556</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>45187</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44519</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>45348.67282407408</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>45596.27261574074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>45930.38706018519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>45637</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>45931.62858796296</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44297.76318287037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>45930.38502314815</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>45358.37159722222</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>45011.93555555555</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45712.55626157407</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22119,7 +22119,7 @@
         <v>45331.43362268519</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>45931.61349537037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>45931.61493055556</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>45931.62996527777</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>45931.63064814815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>45931.63251157408</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>45559.59590277778</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>45931.59466435185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>45931.6143287037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45931.63344907408</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45352.35792824074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45933.58989583333</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45772.8017824074</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45933.66685185185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>45933.67023148148</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>45933.66932870371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>45764.38414351852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>45933.67203703704</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44952</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>45497.58564814815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>45735.57248842593</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>45937.5018287037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>45937.52125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>45937.62362268518</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>45716</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>45840.43755787037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45937.52329861111</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>45937.525</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>45717.39690972222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>45936</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>45936.80734953703</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>45936.80887731481</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45939.39905092592</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45840.55556712963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>45530</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>45938.50130787037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>45939.37894675926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>45191</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>45191</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>45939.54582175926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>45211.56078703704</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45113</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45845.62190972222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44735.44400462963</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>45845.61696759259</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>45845.62030092593</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45845.62399305555</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45100.55548611111</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45465.49680555556</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45943.44037037037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45320.61409722222</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45845.61859953704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>45671.52005787037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>45945.46814814815</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45246.62707175926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>45945.65936342593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>45945.69332175926</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45848.45236111111</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44501</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>45829.46525462963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44894</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>45852.32833333333</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>45462.43791666667</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45852.29828703704</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45852.31815972222</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44588.70157407408</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45588.59636574074</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>45852.34857638889</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>45852.35935185185</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>45852.30655092592</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>45852.30929398148</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45852.32268518519</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45852.31328703704</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45852.35208333333</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45855.28050925926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45258.40917824074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45796.43293981482</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45511</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>45950.48333333333</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45754</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45701.66265046296</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>45027</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>44880.44614583333</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>45167.46049768518</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>45952.58738425926</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>45952.58931712963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>45365</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>45863.58912037037</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>45863.47493055555</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>45155.64881944445</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44721</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45632.53740740741</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>45320.37047453703</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>45952.5883912037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>45478.37251157407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>45520.63755787037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27864,7 +27864,7 @@
         <v>44739.49780092593</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27921,7 +27921,7 @@
         <v>45849.82788194445</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>45842.46525462963</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>44908.46491898148</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28092,7 +28092,7 @@
         <v>44322.45649305556</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28149,7 +28149,7 @@
         <v>44624.64258101852</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28206,7 +28206,7 @@
         <v>45175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28263,7 +28263,7 @@
         <v>45395.4094675926</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28320,7 +28320,7 @@
         <v>45395.41248842593</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45721.47709490741</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>45562</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44432.75258101852</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44447.38280092592</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44333.36237268519</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44970.59005787037</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44812.63449074074</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44273.58916666666</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>45790.36645833333</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>45189.56726851852</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>45498</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>45665.54670138889</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44237</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44712</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>45722.48475694445</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44447.38677083333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44958.65167824074</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45395.40734953704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45518.69004629629</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45301</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44392.62262731481</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44235</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>45873.36478009259</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44496.62851851852</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>45873.36563657408</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>45614.39525462963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>45959.6683912037</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>45958.59887731481</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>45682</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>44333.36072916666</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>45870.51346064815</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>45465.70548611111</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>45465.63829861111</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44469.49696759259</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>45607</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>45611.37762731482</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>45959.66505787037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30506,7 +30506,7 @@
         <v>44958.65390046296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45465.64491898148</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45958.5975</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45959.66606481482</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45959.66734953703</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44389.58666666667</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>45465.64028935185</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>45465.70149305555</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>45958.59641203703</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44971.844375</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44243</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>45395.4044212963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44810</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>45077.67440972223</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>45245.55140046297</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44974.689375</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>45875.33354166667</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31485,7 +31485,7 @@
         <v>44578.43134259259</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>44523</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44926.86648148148</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45876.33436342593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>45961.5391087963</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>45960</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>45876.41993055555</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45961.48788194444</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45961.48866898148</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>45965.43381944444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>45596.27090277777</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>45880.63071759259</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>45964.48415509259</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>45324.41423611111</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45880.4121875</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45176</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44931.47987268519</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45963.89556712963</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45880.41001157407</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>45880.63387731482</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>45881.35246527778</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44853.33546296296</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>45967.49642361111</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45966</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>45966</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45966</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>45966.7572337963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45882.63306712963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>45882.74145833333</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>45966</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>45966</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>45882.38854166667</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>45966</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45882.37444444445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45882.3959375</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45509.48924768518</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44328</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44651.45693287037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45968</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45968</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>45971.63806712963</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>45649.31149305555</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33894,7 +33894,7 @@
         <v>45971.63587962963</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33951,7 +33951,7 @@
         <v>45938.59599537037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34008,7 +34008,7 @@
         <v>45882.36873842592</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>45930.38884259259</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34122,7 +34122,7 @@
         <v>45523.59328703704</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34179,7 +34179,7 @@
         <v>45415.24046296296</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34236,7 +34236,7 @@
         <v>45097</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>45882.73533564815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>45973.32774305555</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>45882.51865740741</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45882.67761574074</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45973.65106481482</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44867.59962962963</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45250</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45973.32962962963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45973.33491898148</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>45358.36603009259</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>45973.33396990741</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>45973.67756944444</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>44749.2853125</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35034,7 +35034,7 @@
         <v>45974.39765046296</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35091,7 +35091,7 @@
         <v>44578.43416666667</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>45975.25318287037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>45975.28063657408</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>45974.53975694445</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>45599.49332175926</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>45978.58315972222</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>45978.57663194444</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>45978.5775462963</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>45978.58413194444</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44245</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>45008</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>45978.5783912037</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>45978.2849537037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>45611.37390046296</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>45616.66825231481</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>45978.57325231482</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>45978.57445601852</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>45978.57554398148</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>45979.54875</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36174,7 +36174,7 @@
         <v>45235.92984953704</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36231,7 +36231,7 @@
         <v>45669.86645833333</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36288,7 +36288,7 @@
         <v>45675.65545138889</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>45981.6109375</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36407,7 +36407,7 @@
         <v>44986</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36464,7 +36464,7 @@
         <v>44449.59364583333</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36521,7 +36521,7 @@
         <v>45204</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36578,7 +36578,7 @@
         <v>45084.55328703704</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>45982.35988425926</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36697,7 +36697,7 @@
         <v>45982.35376157407</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36754,7 +36754,7 @@
         <v>45985.45640046296</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         <v>44433.52033564815</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36868,7 +36868,7 @@
         <v>45985.44362268518</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36925,7 +36925,7 @@
         <v>45985.44444444445</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>45174</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37039,7 +37039,7 @@
         <v>45607.46381944444</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>44607</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45545.59177083334</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45989.57273148148</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45989.57479166667</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37324,7 +37324,7 @@
         <v>45629.53239583333</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37381,7 +37381,7 @@
         <v>46034.4402662037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>45629.53693287037</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45345</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>44497.69635416667</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>45993.55738425926</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>46034.42356481482</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>44931.48320601852</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>45484.66706018519</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>45427.536875</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>46036.47013888889</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>45337.6000462963</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>45603.50640046296</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>46036.47262731481</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>45316.60839120371</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38189,7 +38189,7 @@
         <v>44903</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38246,7 +38246,7 @@
         <v>46041.59646990741</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38303,7 +38303,7 @@
         <v>46041.5991087963</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>46041.60510416667</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>45645.65525462963</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>44265</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>46041.61112268519</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>46041.61418981481</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>45588.64974537037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>45475.85295138889</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38759,7 +38759,7 @@
         <v>46043.53336805556</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38816,7 +38816,7 @@
         <v>44909.51429398148</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>44455.39747685185</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>46043.53753472222</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38997,7 +38997,7 @@
         <v>44456.30787037037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39054,7 +39054,7 @@
         <v>45425.70068287037</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39111,7 +39111,7 @@
         <v>45273</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39168,7 +39168,7 @@
         <v>46002.29491898148</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45009.62383101852</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>45161.52252314815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>44866.60233796296</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39396,7 +39396,7 @@
         <v>44588.71358796296</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39453,7 +39453,7 @@
         <v>46003.51923611111</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39510,7 +39510,7 @@
         <v>45331.43564814814</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39567,7 +39567,7 @@
         <v>44812.36215277778</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39624,7 +39624,7 @@
         <v>45520.63675925926</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>45520.63895833334</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         <v>46007.39284722223</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>45555.7990625</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>46009.43173611111</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>45390.36922453704</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>46008.45582175926</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45678.614375</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>45523.59434027778</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>45624.40318287037</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>45042.4808449074</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>44949</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>44501</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>46008.4480787037</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>46009.65202546296</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>46009.65649305555</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>46009.65739583333</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>46049</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>44581.43232638889</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>46051.4491087963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>46009.62508101852</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>45155.48686342593</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>46009.65802083333</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40950,7 +40950,7 @@
         <v>44926.84900462963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41007,7 +41007,7 @@
         <v>46009.58130787037</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>46009.58384259259</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         <v>46009.62381944444</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41188,7 +41188,7 @@
         <v>46009.62628472222</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41245,7 +41245,7 @@
         <v>46009.63271990741</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41302,7 +41302,7 @@
         <v>46051.60989583333</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41359,7 +41359,7 @@
         <v>46009.62263888889</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41416,7 +41416,7 @@
         <v>44729.35767361111</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41473,7 +41473,7 @@
         <v>44818</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41530,7 +41530,7 @@
         <v>45135</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41587,7 +41587,7 @@
         <v>45000.32324074074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41644,7 +41644,7 @@
         <v>46052.47851851852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41701,7 +41701,7 @@
         <v>44237</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41758,7 +41758,7 @@
         <v>45282.41629629629</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41815,7 +41815,7 @@
         <v>44749.27438657408</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>45749</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41934,7 +41934,7 @@
         <v>45169.40534722222</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41991,7 +41991,7 @@
         <v>44748</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42048,7 +42048,7 @@
         <v>45581.47037037037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>45702.40304398148</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>46056.30408564815</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>45770</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44776.39636574074</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>45096.61005787037</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>45675.64688657408</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>44971</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>44971</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45062</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45084</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>45603.46451388889</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>45603.47803240741</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>44498</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>45509.48142361111</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>44917</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42980,7 +42980,7 @@
         <v>44915.72001157407</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43037,7 +43037,7 @@
         <v>45366</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43099,7 +43099,7 @@
         <v>45092</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43156,7 +43156,7 @@
         <v>45447.29674768518</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43213,7 +43213,7 @@
         <v>44265.62462962963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>45595.84672453703</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43327,7 +43327,7 @@
         <v>45702.40969907407</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>45717.4099074074</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>45717.41087962963</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44551.85696759259</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>45400.34746527778</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>44739.59894675926</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>45726.333125</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>45637</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>44893</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44938.54009259259</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45427.53611111111</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>44910</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45553.67296296296</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45282</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45331.43622685185</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44606</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45574.50712962963</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44302.48252314814</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45250</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45515.49909722222</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45672.39741898148</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45190.67278935185</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>44501</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45579.38944444444</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45726.88983796296</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45264.56972222222</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45709.46761574074</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44881,7 +44881,7 @@
         <v>45211.55890046297</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44938,7 +44938,7 @@
         <v>45775.47288194444</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44995,7 +44995,7 @@
         <v>45730.58918981482</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45052,7 +45052,7 @@
         <v>45259.33623842592</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>44496</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45315.47256944444</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>45534.6444675926</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45534.64615740741</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45672.39876157408</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45404,7 +45404,7 @@
         <v>45317</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45461,7 +45461,7 @@
         <v>44935</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45518,7 +45518,7 @@
         <v>45110</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45611.35309027778</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         <v>45231.36464120371</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45689,7 +45689,7 @@
         <v>45089.80048611111</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45751,7 +45751,7 @@
         <v>45709</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>45350.48736111111</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45870,7 +45870,7 @@
         <v>45488</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45927,7 +45927,7 @@
         <v>45737.4858912037</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45989,7 +45989,7 @@
         <v>45573</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46046,7 +46046,7 @@
         <v>45708.39555555556</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46103,7 +46103,7 @@
         <v>45365.32019675926</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46160,7 +46160,7 @@
         <v>44456</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46217,7 +46217,7 @@
         <v>44250</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46274,7 +46274,7 @@
         <v>45744.60837962963</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45199.8639699074</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>44236.50064814815</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>44379</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46507,7 +46507,7 @@
         <v>45635.55659722222</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45187</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45607.50462962963</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>44757.63770833334</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45468.70416666667</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45717.37655092592</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45717.39528935185</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45594.46626157407</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45125.4228125</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>44896.51383101852</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>45596.27725694444</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>45177</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45708.39626157407</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45364.31883101852</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45231</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>45425.70412037037</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45251</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45097</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>44817.7231712963</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45100</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45558.493125</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>45706.65204861111</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>45706.66072916667</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45770.56298611111</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>45544.44743055556</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>44551.8628587963</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>44502.31447916666</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48046,7 +48046,7 @@
         <v>45545.58944444444</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48103,7 +48103,7 @@
         <v>44896.52641203703</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48160,7 +48160,7 @@
         <v>45545.5222337963</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>45545.52599537037</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>44378</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>45176</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48393,7 +48393,7 @@
         <v>45509.55731481482</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48450,7 +48450,7 @@
         <v>45702.42722222222</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48512,7 +48512,7 @@
         <v>45702.42866898148</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48574,7 +48574,7 @@
         <v>45328.46501157407</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44802</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48688,7 +48688,7 @@
         <v>45110</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>45026</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48802,7 +48802,7 @@
         <v>45163.7199537037</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48864,7 +48864,7 @@
         <v>44711.95481481482</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48921,7 +48921,7 @@
         <v>45699.70453703704</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48978,7 +48978,7 @@
         <v>45349</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49035,7 +49035,7 @@
         <v>45273.7587037037</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49092,7 +49092,7 @@
         <v>45112</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         <v>45607.48710648148</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49206,7 +49206,7 @@
         <v>45754.43040509259</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49268,7 +49268,7 @@
         <v>45615.27533564815</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49325,7 +49325,7 @@
         <v>45711</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49382,7 +49382,7 @@
         <v>44362.65372685185</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49439,7 +49439,7 @@
         <v>45495.88708333333</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49496,7 +49496,7 @@
         <v>45223.61922453704</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49553,7 +49553,7 @@
         <v>45167.33456018518</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49610,7 +49610,7 @@
         <v>45488</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49667,7 +49667,7 @@
         <v>45764.39450231481</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49724,7 +49724,7 @@
         <v>45726.90060185185</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49781,7 +49781,7 @@
         <v>45418.35512731481</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49838,7 +49838,7 @@
         <v>44943.56219907408</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49895,7 +49895,7 @@
         <v>45222.35112268518</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49952,7 +49952,7 @@
         <v>45117.35921296296</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50009,7 +50009,7 @@
         <v>45484.65953703703</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50071,7 +50071,7 @@
         <v>45100.56320601852</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50128,7 +50128,7 @@
         <v>45687.61872685186</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50185,7 +50185,7 @@
         <v>45726.8953587963</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50242,7 +50242,7 @@
         <v>44776.36688657408</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50299,7 +50299,7 @@
         <v>45189</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50356,7 +50356,7 @@
         <v>44488</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50418,7 +50418,7 @@
         <v>45764.38697916667</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50475,7 +50475,7 @@
         <v>45721</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50532,7 +50532,7 @@
         <v>45777.50840277778</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50589,7 +50589,7 @@
         <v>45777.36719907408</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50646,7 +50646,7 @@
         <v>45777.51238425926</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50703,7 +50703,7 @@
         <v>45782.58153935185</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50760,7 +50760,7 @@
         <v>45782.56547453703</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50817,7 +50817,7 @@
         <v>45783.62003472223</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50874,7 +50874,7 @@
         <v>45488.70516203704</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50931,7 +50931,7 @@
         <v>45365.65672453704</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50993,7 +50993,7 @@
         <v>45624.55962962963</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51050,7 +51050,7 @@
         <v>45637.55875</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51107,7 +51107,7 @@
         <v>45785.68796296296</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45785.69043981482</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51231,7 +51231,7 @@
         <v>45784.66596064815</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51288,7 +51288,7 @@
         <v>45784.66774305556</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51345,7 +51345,7 @@
         <v>45639.60168981482</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51402,7 +51402,7 @@
         <v>45511</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51459,7 +51459,7 @@
         <v>45678.63623842593</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51516,7 +51516,7 @@
         <v>45790.36791666667</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51573,7 +51573,7 @@
         <v>45792.75988425926</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51630,7 +51630,7 @@
         <v>45793.33966435185</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>45559.59489583333</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>44873</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51806,7 +51806,7 @@
         <v>45552.49181712963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51863,7 +51863,7 @@
         <v>44977</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51920,7 +51920,7 @@
         <v>45797.60055555555</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51977,7 +51977,7 @@
         <v>45481</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52034,7 +52034,7 @@
         <v>45796.62123842593</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -575,7 +575,7 @@
         <v>45187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45232</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45993.5589699074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45509.44369212963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45770.56108796296</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45798.47107638889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45400.47915509259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45425.41545138889</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45728.47916666666</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45905.440625</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>45717.39260416666</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44530</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44965</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44977</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>45558</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>44760</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>44742.43836805555</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44242</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44284</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44378.3903587963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>44441.59993055555</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>44810</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44386.86407407407</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44266.62798611111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44358.30866898148</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44508</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44323</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44358.34570601852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>44417.62429398148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44250</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44866.60554398148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44266.49640046297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44529.56993055555</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44615</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44802</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44802</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44802</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44353.85783564814</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44578.43284722222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44817.72686342592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44547.36016203704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44691</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44887.39527777778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44386</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44284</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44824.59596064815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44378.38956018518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44244</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44767.45964120371</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44273</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44365</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44845.47885416666</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44358.29576388889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44873.58728009259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44425.57732638889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44287.49908564815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44428</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44273.57444444444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44305</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44272.63491898148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44414.48363425926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44824.59288194445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44406</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44585.71317129629</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44715</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44358.29001157408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44606.55068287037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44544.51118055556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>44809</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44594.62553240741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44739.48693287037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44473.5024537037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44473.50425925926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44748</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44488</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44558.62664351852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>44840</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>44614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44867.59149305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44285</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44400</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44802</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44344.39539351852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44855.44949074074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44571.74010416667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44606</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44840</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44638.52920138889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44299</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44246</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44343</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44454.32325231482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44273</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44735</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44358.31386574074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44353</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44353</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44662.24118055555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44606.55320601852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44753.28717592593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44454</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44606</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>44550.52243055555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>44239</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>44365.48976851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>44544</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>44550.52158564814</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>44482.31039351852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>44945.46364583333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>45385.33501157408</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44489</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>45212.6421875</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45364.56442129629</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>44803</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>44551.88674768519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>44340.41997685185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45590.61549768518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>45093</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45414.78167824074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>45585.91030092593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>45119</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45735.51754629629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>45212.61796296296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>45357.42123842592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>45008.49725694444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>45360.80607638889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>45337.58814814815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>45174</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45191</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>45730.51931712963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45772.79462962963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>45680.55241898148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>45715.37373842593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44455.47987268519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>45211.5600462963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>45635.63982638889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44840.48019675926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>45503.29950231482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>45737.48446759259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>45719.68841435185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>45719.69400462963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44432.60353009259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>45404.46775462963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>45404.475</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44558.65225694444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44951.68246527778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44365.59041666667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>45758.3190625</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>45517</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44952</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44853.68696759259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>45331.43450231481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>45729.41030092593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>45799.53121527778</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>45163</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45545.52421296296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45727.73561342592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45740.73518518519</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44739.59581018519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>45884.56103009259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45629.55097222222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45736.47740740741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45322</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>45355.35863425926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>45729.40451388889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45729.40857638889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>45736.47576388889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>45737.48658564815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45735.58962962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>45727.61900462963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45728.48721064815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>45728.48363425926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45494</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>45735.59598379629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>45730.52662037037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>45733.54864583333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>45733.55269675926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>45709</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45803.34383101852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44553.46798611111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44594.61658564815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44931</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44356</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>45642.95520833333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>45884.57325231482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45511</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44986</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>45607.49489583333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44840.48739583333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>45804.61609953704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>45804.61944444444</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44883</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>45805.34600694444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45054.39552083334</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>45244.68857638889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>45804.62068287037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>45264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>45804.65353009259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44923</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>45629.55606481482</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>45400.32546296297</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45804.61416666667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>45385.33305555556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>45810</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45706.58354166667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>45273.71439814815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44657.63938657408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>45617.44547453704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>45889.65611111111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45889.6637962963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>45198</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45810.34222222222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45810.34775462963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45813.53417824074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45698.3561574074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>45888.36394675926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45889.64594907407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>45887.80711805556</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>45812.61347222222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45812.65081018519</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45811.78976851852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>45813.5249537037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>45811.92189814815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>45813.55363425926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>45813.55480324074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44896</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>45266.4074537037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44275.78903935185</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45838.92648148148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45735.57356481482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45735.5909375</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>45588.65200231481</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44974.69614583333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>45817.02725694444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>45817.46300925926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44489</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>45198</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>45104.60037037037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>45897.55211805556</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>45720</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45159.39725694444</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>45900.71957175926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45561.30137731481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>45582.30001157407</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45629.54733796296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>45898</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45818</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45790.3634375</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45771.47091435185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45901.38729166667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>45819.71221064815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45818.39450231481</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45615.26976851852</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45748.85103009259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45753.41890046297</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45820.52103009259</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45687.62136574074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>45687.62925925926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44860</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>45902.47337962963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>45235</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>45902.6129050926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44867.32956018519</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45904.45391203704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>44820.44133101852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45498.32634259259</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>45905.43704861111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>45824.32594907407</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>44396.55261574074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45264</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>45908.56534722223</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>45824.3162037037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45825.56981481481</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45825.5734837963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>45908.84606481482</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>45699.70334490741</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>45702.40758101852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>45905</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>45204.60837962963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>45910.59189814814</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45910.57027777778</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45838.43341435185</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45824.50456018518</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>45910.23809027778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>45825.52016203704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
         <v>45825.57106481482</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45911.42458333333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>45882.63118055555</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>45827.36391203704</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>45790.35498842593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45910.24565972222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45910.58902777778</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45520</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45520</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45912.5659837963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44896</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45190</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>45717.37541666667</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>45912.26643518519</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>45826.31435185186</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>45678.64009259259</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44563</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>45916.35369212963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>45831.4978125</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>45916.35141203704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45917.63487268519</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>45831.33459490741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44271.52563657407</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>45916.34912037037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>45831.37350694444</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>45118.70503472222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>45831.57614583334</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>45831.34222222222</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>45831.33755787037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>45918.61972222223</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20461,7 +20461,7 @@
         <v>45918.50519675926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>45918.66293981481</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45922</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>45730.51604166667</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45730.59303240741</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>45832.85799768518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>45735.50659722222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>45607.50800925926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>45924.37596064815</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44441.59430555555</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>45831.36936342593</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>45709.7199537037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45182.71399305556</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45666.56546296296</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44923.29418981481</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45833.59633101852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>45630.59774305556</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>45187</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44519</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>45348.67282407408</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>45596.27261574074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>45930.38706018519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>45637</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21777,7 +21777,7 @@
         <v>45931.62858796296</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21834,7 +21834,7 @@
         <v>44297.76318287037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>45930.38502314815</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>45358.37159722222</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>45011.93555555555</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45712.55626157407</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22119,7 +22119,7 @@
         <v>45331.43362268519</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>45931.61349537037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>45931.61493055556</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>45931.62996527777</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>45931.63064814815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>45931.63251157408</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>45559.59590277778</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>45931.59466435185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>45931.6143287037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45931.63344907408</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45352.35792824074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45933.58989583333</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45772.8017824074</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45933.66685185185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>45933.67023148148</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>45933.66932870371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>45764.38414351852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>45933.67203703704</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44952</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>45497.58564814815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>45735.57248842593</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>45937.5018287037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>45937.52125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>45937.62362268518</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>45716</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>45840.43755787037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45937.52329861111</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>45937.525</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>45717.39690972222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>45936</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>45936.80734953703</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>45936.80887731481</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45939.39905092592</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45840.55556712963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>45530</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>45938.50130787037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>45939.37894675926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>45191</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>45191</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>45939.54582175926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>45211.56078703704</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45113</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45845.62190972222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44735.44400462963</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>45845.61696759259</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>45845.62030092593</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45845.62399305555</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45100.55548611111</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45465.49680555556</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45943.44037037037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45320.61409722222</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45845.61859953704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>45671.52005787037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>45945.46814814815</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45246.62707175926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>45945.65936342593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>45945.69332175926</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45848.45236111111</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44501</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>45829.46525462963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44894</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>45852.32833333333</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>45462.43791666667</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45852.29828703704</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45852.31815972222</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44588.70157407408</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45588.59636574074</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>45852.34857638889</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>45852.35935185185</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>45852.30655092592</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>45852.30929398148</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45852.32268518519</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45852.31328703704</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45852.35208333333</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45855.28050925926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45258.40917824074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45796.43293981482</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45511</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>45950.48333333333</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45754</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45701.66265046296</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>45027</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>44880.44614583333</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>45167.46049768518</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>45952.58738425926</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>45952.58931712963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>45365</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>45863.58912037037</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>45863.47493055555</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>45155.64881944445</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44721</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45632.53740740741</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>45320.37047453703</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>45952.5883912037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>45478.37251157407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>45520.63755787037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>44712</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         <v>44712</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27864,7 +27864,7 @@
         <v>44739.49780092593</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27921,7 +27921,7 @@
         <v>45849.82788194445</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>45842.46525462963</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>44908.46491898148</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28092,7 +28092,7 @@
         <v>44322.45649305556</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28149,7 +28149,7 @@
         <v>44624.64258101852</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28206,7 +28206,7 @@
         <v>45175</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28263,7 +28263,7 @@
         <v>45395.4094675926</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28320,7 +28320,7 @@
         <v>45395.41248842593</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45721.47709490741</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>45562</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44432.75258101852</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44447.38280092592</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44333.36237268519</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44970.59005787037</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44812.63449074074</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44273.58916666666</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>45790.36645833333</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>45189.56726851852</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>45498</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>45665.54670138889</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44237</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44712</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>45722.48475694445</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44447.38677083333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44958.65167824074</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45395.40734953704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45518.69004629629</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45301</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44392.62262731481</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44235</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>45873.36478009259</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44496.62851851852</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>45873.36563657408</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>45614.39525462963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>45959.6683912037</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>45958.59887731481</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>45682</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>44333.36072916666</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>45870.51346064815</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>45465.70548611111</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>45465.63829861111</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44469.49696759259</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>45607</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>45611.37762731482</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>45959.66505787037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30506,7 +30506,7 @@
         <v>44958.65390046296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45465.64491898148</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45958.5975</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45959.66606481482</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45959.66734953703</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44389.58666666667</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>45465.64028935185</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>45465.70149305555</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>45958.59641203703</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44971.844375</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44243</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>45395.4044212963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44810</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>45077.67440972223</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>45245.55140046297</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44974.689375</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>45875.33354166667</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31485,7 +31485,7 @@
         <v>44578.43134259259</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>44523</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44926.86648148148</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45876.33436342593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>45961.5391087963</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>45960</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>45876.41993055555</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45961.48788194444</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45961.48866898148</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>45965.43381944444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>45596.27090277777</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>45880.63071759259</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>45964.48415509259</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>45324.41423611111</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45880.4121875</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45176</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44931.47987268519</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45963.89556712963</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45880.41001157407</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>45880.63387731482</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>45881.35246527778</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44853.33546296296</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>45967.49642361111</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45966</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>45966</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45966</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>45966.7572337963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45882.63306712963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>45882.74145833333</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>45966</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>45966</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>45882.38854166667</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>45966</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45882.37444444445</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45882.3959375</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45509.48924768518</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44328</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44651.45693287037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45968</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45968</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>45971.63806712963</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>45649.31149305555</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33894,7 +33894,7 @@
         <v>45971.63587962963</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33951,7 +33951,7 @@
         <v>45938.59599537037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34008,7 +34008,7 @@
         <v>45882.36873842592</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>45930.38884259259</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34122,7 +34122,7 @@
         <v>45523.59328703704</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34179,7 +34179,7 @@
         <v>45415.24046296296</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34236,7 +34236,7 @@
         <v>45097</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>45882.73533564815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>45973.32774305555</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>45882.51865740741</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45882.67761574074</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45973.65106481482</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44867.59962962963</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45250</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45973.32962962963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45973.33491898148</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>45358.36603009259</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>45973.33396990741</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>45973.67756944444</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>44749.2853125</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35034,7 +35034,7 @@
         <v>45974.39765046296</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35091,7 +35091,7 @@
         <v>44578.43416666667</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>45975.25318287037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>45975.28063657408</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>45974.53975694445</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>45599.49332175926</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>45978.58315972222</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>45978.57663194444</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>45978.5775462963</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>45978.58413194444</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44245</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>45008</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>45978.5783912037</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>45978.2849537037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>45611.37390046296</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>45616.66825231481</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>45978.57325231482</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>45978.57445601852</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>45978.57554398148</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>45979.54875</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36174,7 +36174,7 @@
         <v>45235.92984953704</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36231,7 +36231,7 @@
         <v>45669.86645833333</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36288,7 +36288,7 @@
         <v>45675.65545138889</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>45981.6109375</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36407,7 +36407,7 @@
         <v>44986</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36464,7 +36464,7 @@
         <v>44449.59364583333</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36521,7 +36521,7 @@
         <v>45204</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36578,7 +36578,7 @@
         <v>45084.55328703704</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>45982.35988425926</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36697,7 +36697,7 @@
         <v>45982.35376157407</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36754,7 +36754,7 @@
         <v>45985.45640046296</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         <v>44433.52033564815</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36868,7 +36868,7 @@
         <v>45985.44362268518</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36925,7 +36925,7 @@
         <v>45985.44444444445</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>45174</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37039,7 +37039,7 @@
         <v>45607.46381944444</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>44607</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45545.59177083334</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45989.57273148148</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45989.57479166667</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37324,7 +37324,7 @@
         <v>45629.53239583333</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37381,7 +37381,7 @@
         <v>46034.4402662037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>45629.53693287037</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45345</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>44497.69635416667</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>45993.55738425926</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>46034.42356481482</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>44931.48320601852</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>45484.66706018519</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>45427.536875</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>46036.47013888889</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>45337.6000462963</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>45603.50640046296</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>46036.47262731481</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>45316.60839120371</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38189,7 +38189,7 @@
         <v>44903</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38246,7 +38246,7 @@
         <v>46041.59646990741</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38303,7 +38303,7 @@
         <v>46041.5991087963</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>46041.60510416667</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>45645.65525462963</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>44265</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>46041.61112268519</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>46041.61418981481</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>45588.64974537037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>45475.85295138889</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38759,7 +38759,7 @@
         <v>46043.53336805556</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38816,7 +38816,7 @@
         <v>44909.51429398148</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>44455.39747685185</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>46043.53753472222</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38997,7 +38997,7 @@
         <v>44456.30787037037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39054,7 +39054,7 @@
         <v>45425.70068287037</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39111,7 +39111,7 @@
         <v>45273</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39168,7 +39168,7 @@
         <v>46002.29491898148</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45009.62383101852</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>45161.52252314815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>44866.60233796296</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39396,7 +39396,7 @@
         <v>44588.71358796296</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39453,7 +39453,7 @@
         <v>46003.51923611111</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39510,7 +39510,7 @@
         <v>45331.43564814814</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39567,7 +39567,7 @@
         <v>44812.36215277778</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39624,7 +39624,7 @@
         <v>45520.63675925926</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>45520.63895833334</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         <v>46007.39284722223</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>45555.7990625</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>46009.43173611111</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>45390.36922453704</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>46008.45582175926</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45678.614375</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>45523.59434027778</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>45624.40318287037</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>45042.4808449074</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>44949</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>44501</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>46008.4480787037</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>46009.65202546296</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>46009.65649305555</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>46009.65739583333</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>46049</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>44581.43232638889</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>46051.4491087963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>46009.62508101852</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>45155.48686342593</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>46009.65802083333</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40950,7 +40950,7 @@
         <v>44926.84900462963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41007,7 +41007,7 @@
         <v>46009.58130787037</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>46009.58384259259</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         <v>46009.62381944444</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41188,7 +41188,7 @@
         <v>46009.62628472222</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41245,7 +41245,7 @@
         <v>46009.63271990741</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41302,7 +41302,7 @@
         <v>46051.60989583333</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41359,7 +41359,7 @@
         <v>46009.62263888889</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41416,7 +41416,7 @@
         <v>44729.35767361111</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41473,7 +41473,7 @@
         <v>44818</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41530,7 +41530,7 @@
         <v>45135</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41587,7 +41587,7 @@
         <v>45000.32324074074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41644,7 +41644,7 @@
         <v>46052.47851851852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41701,7 +41701,7 @@
         <v>44237</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41758,7 +41758,7 @@
         <v>45282.41629629629</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41815,7 +41815,7 @@
         <v>44749.27438657408</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>45749</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41934,7 +41934,7 @@
         <v>45169.40534722222</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41991,7 +41991,7 @@
         <v>44748</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42048,7 +42048,7 @@
         <v>45581.47037037037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>45702.40304398148</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>46056.30408564815</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>45770</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44776.39636574074</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>45096.61005787037</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>45675.64688657408</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>44971</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>44971</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45062</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45084</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>45603.46451388889</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>45603.47803240741</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>44498</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>45509.48142361111</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>44917</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42980,7 +42980,7 @@
         <v>44915.72001157407</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43037,7 +43037,7 @@
         <v>45366</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43099,7 +43099,7 @@
         <v>45092</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43156,7 +43156,7 @@
         <v>45447.29674768518</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43213,7 +43213,7 @@
         <v>44265.62462962963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>45595.84672453703</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43327,7 +43327,7 @@
         <v>45702.40969907407</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>45717.4099074074</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>45717.41087962963</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44551.85696759259</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>45400.34746527778</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>44739.59894675926</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>45726.333125</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>45637</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>44893</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44938.54009259259</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45427.53611111111</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>44910</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45553.67296296296</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45282</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45331.43622685185</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44606</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45574.50712962963</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44302.48252314814</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45250</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45515.49909722222</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45672.39741898148</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45190.67278935185</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>44501</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45579.38944444444</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45726.88983796296</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45264.56972222222</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45709.46761574074</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44881,7 +44881,7 @@
         <v>45211.55890046297</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44938,7 +44938,7 @@
         <v>45775.47288194444</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44995,7 +44995,7 @@
         <v>45730.58918981482</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45052,7 +45052,7 @@
         <v>45259.33623842592</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>44496</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45315.47256944444</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>45534.6444675926</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45534.64615740741</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45672.39876157408</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45404,7 +45404,7 @@
         <v>45317</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45461,7 +45461,7 @@
         <v>44935</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45518,7 +45518,7 @@
         <v>45110</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45611.35309027778</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         <v>45231.36464120371</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45689,7 +45689,7 @@
         <v>45089.80048611111</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45751,7 +45751,7 @@
         <v>45709</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>45350.48736111111</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45870,7 +45870,7 @@
         <v>45488</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45927,7 +45927,7 @@
         <v>45737.4858912037</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45989,7 +45989,7 @@
         <v>45573</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46046,7 +46046,7 @@
         <v>45708.39555555556</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46103,7 +46103,7 @@
         <v>45365.32019675926</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46160,7 +46160,7 @@
         <v>44456</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46217,7 +46217,7 @@
         <v>44250</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46274,7 +46274,7 @@
         <v>45744.60837962963</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45199.8639699074</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>44236.50064814815</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>44379</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46507,7 +46507,7 @@
         <v>45635.55659722222</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45187</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45607.50462962963</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>44757.63770833334</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45468.70416666667</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45717.37655092592</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45717.39528935185</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45594.46626157407</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45125.4228125</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>44896.51383101852</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>45596.27725694444</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>45177</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45708.39626157407</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45364.31883101852</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45231</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>45425.70412037037</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45251</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45097</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>44817.7231712963</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45100</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45558.493125</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>45706.65204861111</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>45706.66072916667</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45770.56298611111</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>45544.44743055556</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>44551.8628587963</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>44502.31447916666</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48046,7 +48046,7 @@
         <v>45545.58944444444</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48103,7 +48103,7 @@
         <v>44896.52641203703</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48160,7 +48160,7 @@
         <v>45545.5222337963</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>45545.52599537037</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>44378</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>45176</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48393,7 +48393,7 @@
         <v>45509.55731481482</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48450,7 +48450,7 @@
         <v>45702.42722222222</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48512,7 +48512,7 @@
         <v>45702.42866898148</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48574,7 +48574,7 @@
         <v>45328.46501157407</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44802</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48688,7 +48688,7 @@
         <v>45110</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>45026</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48802,7 +48802,7 @@
         <v>45163.7199537037</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48864,7 +48864,7 @@
         <v>44711.95481481482</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48921,7 +48921,7 @@
         <v>45699.70453703704</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48978,7 +48978,7 @@
         <v>45349</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49035,7 +49035,7 @@
         <v>45273.7587037037</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49092,7 +49092,7 @@
         <v>45112</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         <v>45607.48710648148</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49206,7 +49206,7 @@
         <v>45754.43040509259</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49268,7 +49268,7 @@
         <v>45615.27533564815</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49325,7 +49325,7 @@
         <v>45711</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49382,7 +49382,7 @@
         <v>44362.65372685185</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49439,7 +49439,7 @@
         <v>45495.88708333333</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49496,7 +49496,7 @@
         <v>45223.61922453704</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49553,7 +49553,7 @@
         <v>45167.33456018518</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49610,7 +49610,7 @@
         <v>45488</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49667,7 +49667,7 @@
         <v>45764.39450231481</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49724,7 +49724,7 @@
         <v>45726.90060185185</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49781,7 +49781,7 @@
         <v>45418.35512731481</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49838,7 +49838,7 @@
         <v>44943.56219907408</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49895,7 +49895,7 @@
         <v>45222.35112268518</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49952,7 +49952,7 @@
         <v>45117.35921296296</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50009,7 +50009,7 @@
         <v>45484.65953703703</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50071,7 +50071,7 @@
         <v>45100.56320601852</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50128,7 +50128,7 @@
         <v>45687.61872685186</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50185,7 +50185,7 @@
         <v>45726.8953587963</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50242,7 +50242,7 @@
         <v>44776.36688657408</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50299,7 +50299,7 @@
         <v>45189</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50356,7 +50356,7 @@
         <v>44488</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50418,7 +50418,7 @@
         <v>45764.38697916667</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50475,7 +50475,7 @@
         <v>45721</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50532,7 +50532,7 @@
         <v>45777.50840277778</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50589,7 +50589,7 @@
         <v>45777.36719907408</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50646,7 +50646,7 @@
         <v>45777.51238425926</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50703,7 +50703,7 @@
         <v>45782.58153935185</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50760,7 +50760,7 @@
         <v>45782.56547453703</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50817,7 +50817,7 @@
         <v>45783.62003472223</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50874,7 +50874,7 @@
         <v>45488.70516203704</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50931,7 +50931,7 @@
         <v>45365.65672453704</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -50993,7 +50993,7 @@
         <v>45624.55962962963</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51050,7 +51050,7 @@
         <v>45637.55875</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51107,7 +51107,7 @@
         <v>45785.68796296296</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45785.69043981482</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51231,7 +51231,7 @@
         <v>45784.66596064815</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51288,7 +51288,7 @@
         <v>45784.66774305556</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51345,7 +51345,7 @@
         <v>45639.60168981482</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51402,7 +51402,7 @@
         <v>45511</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51459,7 +51459,7 @@
         <v>45678.63623842593</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51516,7 +51516,7 @@
         <v>45790.36791666667</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51573,7 +51573,7 @@
         <v>45792.75988425926</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51630,7 +51630,7 @@
         <v>45793.33966435185</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>45559.59489583333</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>44873</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -51806,7 +51806,7 @@
         <v>45552.49181712963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -51863,7 +51863,7 @@
         <v>44977</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -51920,7 +51920,7 @@
         <v>45797.60055555555</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -51977,7 +51977,7 @@
         <v>45481</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52034,7 +52034,7 @@
         <v>45796.62123842593</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -575,7 +575,7 @@
         <v>45187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45232</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45993.5589699074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45509.44369212963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45770.56108796296</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45400.47915509259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45798.47107638889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45425.41545138889</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45905.440625</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45917</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45717.39260416666</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44977</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>45558</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44760</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44742.43836805555</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45728.47916666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44284</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44575</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44441.59993055555</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44810</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44386.86407407407</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>44575</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>44266.62798611111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44250</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44378.3903587963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44358.30866898148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44508</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44353</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44323</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44358.34570601852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44417.62429398148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>44250</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44866.60554398148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44266.49640046297</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44529.56993055555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44615</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44802</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44802</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44802</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44578.43284722222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44353.85783564814</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44817.72686342592</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44547.36016203704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44887.39527777778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44284</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44824.59596064815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44378.38956018518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44767.45964120371</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44273</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44495</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44845.47885416666</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44365</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44873.58728009259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44358.29576388889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44273.57444444444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44425.57732638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44428</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44287.49908564815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44272.63491898148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44355</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44305</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44414.48363425926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44824.59288194445</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44406</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44585.71317129629</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44715</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44358.29001157408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44606.55068287037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44544.51118055556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44809</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44739.48693287037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>44594.62553240741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44473.5024537037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44473.50425925926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44748</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44488</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44558.62664351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44840</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44614</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44867.59149305556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44467</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44285</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44400</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44802</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44344.39539351852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44855.44949074074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44571.74010416667</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44371</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44606</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44840</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44638.52920138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44343</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44454.32325231482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44735</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44273</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44358.31386574074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44353</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44353</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44662.24118055555</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44563</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44606.55320601852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44753.28717592593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44454</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44550.52243055555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44365.48976851852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44544</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>44550.52158564814</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>44482.31039351852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>44945.46364583333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>45385.33501157408</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>45364.56442129629</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>44803</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44551.88674768519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>45212.6421875</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44340.41997685185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44489</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>45590.61549768518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>45093</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>45414.78167824074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>45119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>45585.91030092593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>45735.51754629629</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45212.61796296296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>45357.42123842592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>45008.49725694444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45360.80607638889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>45337.58814814815</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44791</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>45191</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44894</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>45174</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45730.51931712963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>45772.79462962963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>45680.55241898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45635.63982638889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44840.48019675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45503.29950231482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>45719.68841435185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>45719.69400462963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>45737.48446759259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>45404.46775462963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>45404.475</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44951.68246527778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44432.60353009259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>45758.3190625</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44558.65225694444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44365.59041666667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44952</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44853.68696759259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>45517</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>45331.43450231481</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44739.59581018519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>45322</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>45355.35863425926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>45163</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>45545.52421296296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>45715.37373842593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>45482</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44455.47987268519</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44594.61658564815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>45709</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44553.46798611111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44711</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44931</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44883</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45054.39552083334</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44356</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>45642.95520833333</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>45244.68857638889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>45511</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44986</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>45264</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45629.55606481482</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45211.5600462963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44657.63938657408</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45400.32546296297</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>45385.33305555556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>45266.4074537037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44275.78903935185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>45735.57356481482</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>45735.5909375</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>45198</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>45588.65200231481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>45698.3561574074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44974.69614583333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44489</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>45818</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45104.60037037037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45884.57325231482</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45819.71221064815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45607.49489583333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>45818.39450231481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44840.48739583333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>45748.85103009259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>45753.41890046297</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>45159.39725694444</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>45820.52103009259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>45582.30001157407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>45771.47091435185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>45615.26976851852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45824.32594907407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>45706.58354166667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>45889.65611111111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>45687.62136574074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>45687.62925925926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>45824.3162037037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>45825.56981481481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>45825.5734837963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45889.6637962963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>44860</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>45235</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45813.53417824074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44867.32956018519</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>45824.50456018518</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>45888.36394675926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>45889.64594907407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45825.52016203704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>45825.57106481482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>45887.80711805556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44516</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>45827.36391203704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44820.44133101852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>45498.32634259259</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>45838.92648148148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>44396.55261574074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>45264</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>45826.31435185186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14887,7 +14887,7 @@
         <v>45831.4978125</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>45831.33459490741</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>45831.37350694444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>45831.57614583334</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>45831.34222222222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44302</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>45699.70334490741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45702.40758101852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45204.60837962963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45831.33755787037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45897.55211805556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>45832.85799768518</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>45720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>45520</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>45520</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44896</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>45190</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>45717.37541666667</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>45831.36936342593</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>45900.71957175926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>45561.30137731481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>45629.54733796296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45898</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45833.59633101852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45790.3634375</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45901.38729166667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45678.64009259259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44563</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44271.52563657407</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45118.70503472222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>45902.47337962963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45902.6129050926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45904.45391203704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45730.51604166667</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45730.59303240741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>45735.50659722222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>45607.50800925926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>45905.43704861111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>45908.56534722223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44441.59430555555</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>45908.84606481482</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45840.43755787037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45905</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>45910.59189814814</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45709.7199537037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45910.57027777778</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45838.43341435185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>45840.55556712963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>45182.71399305556</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>45666.56546296296</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>44923.29418981481</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>45910.23809027778</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>45911.42458333333</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45845.62190972222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45845.61696759259</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>45845.62030092593</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>45845.62399305555</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>45882.63118055555</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>45790.35498842593</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18275,7 +18275,7 @@
         <v>45910.24565972222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>45630.59774305556</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>45910.58902777778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45187</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>45912.5659837963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>45845.61859953704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>44519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>45912.26643518519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>45348.67282407408</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>45596.27261574074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>45848.45236111111</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>45637</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45916.35369212963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45916.35141203704</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>45917.63487268519</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44297.76318287037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>45358.37159722222</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>45011.93555555555</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>45829.46525462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>45916.34912037037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45852.32833333333</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45712.55626157407</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45331.43362268519</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>45852.29828703704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45852.31815972222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45559.59590277778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45852.34857638889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>45852.35935185185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>45352.35792824074</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45852.30655092592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45852.30929398148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>45852.32268518519</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>45852.31328703704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>45852.35208333333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>45855.28050925926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45772.8017824074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>45918.61972222223</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45918.50519675926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>45764.38414351852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>45918.66293981481</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45796.43293981482</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>45754</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>45922</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>45701.66265046296</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44952</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>45497.58564814815</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45863.58912037037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>45735.57248842593</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45924.37596064815</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45863.47493055555</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45716</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45717.39690972222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44721</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>45159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>44712</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44712</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21544,7 +21544,7 @@
         <v>44739.49780092593</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>45191</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>45191</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21715,7 +21715,7 @@
         <v>45849.82788194445</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>45842.46525462963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>44908.46491898148</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>44322.45649305556</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45009</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>45395.4094675926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>45395.41248842593</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45211.56078703704</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45721.47709490741</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45113</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>44432.75258101852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>44447.38280092592</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>44333.36237268519</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>44970.59005787037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>44812.63449074074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>44273.58916666666</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45790.36645833333</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45189.56726851852</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45498</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45665.54670138889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>44735.44400462963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44712</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45722.48475694445</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44447.38677083333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44958.65167824074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23197,7 +23197,7 @@
         <v>45395.40734953704</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>45518.69004629629</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>45301</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44392.62262731481</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>45873.36478009259</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44496.62851851852</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>45100.55548611111</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45873.36563657408</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>45930.38706018519</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>45465.49680555556</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44333.36072916666</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>45870.51346064815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23886,7 +23886,7 @@
         <v>45465.70548611111</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>45465.63829861111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44469.49696759259</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45607</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>45611.37762731482</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44958.65390046296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>45465.64491898148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44389.58666666667</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>45465.64028935185</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>45465.70149305555</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>45931.62858796296</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>45395.4044212963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>45077.67440972223</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>45245.55140046297</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>45930.38502314815</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45320.61409722222</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>45931.61349537037</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>45931.61493055556</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>45931.62996527777</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>45931.63064814815</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>45931.63251157408</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>45931.59466435185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>45671.52005787037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>45931.6143287037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>45931.63344907408</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>45933.58989583333</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>45875.33354166667</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>45246.62707175926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>45933.66685185185</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
         <v>45933.67023148148</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>45876.33436342593</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>45933.66932870371</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45933.67203703704</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>45876.41993055555</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>44501</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44894</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>45880.63071759259</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>45462.43791666667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26129,7 +26129,7 @@
         <v>44588.70157407408</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>45588.59636574074</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45880.4121875</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>45880.41001157407</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>45880.63387731482</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45881.35246527778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45258.40917824074</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>45882.63306712963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>45882.74145833333</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>45511</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>45882.38854166667</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>45937.5018287037</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>45882.37444444445</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>45882.3959375</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>45937.52125</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26984,7 +26984,7 @@
         <v>45937.62362268518</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>45937.52329861111</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>45937.525</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>45936</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27212,7 +27212,7 @@
         <v>45882.36873842592</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>45027</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27326,7 +27326,7 @@
         <v>45936.80734953703</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27383,7 +27383,7 @@
         <v>45936.80887731481</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27440,7 +27440,7 @@
         <v>45415.24046296296</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44880.44614583333</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>45882.73533564815</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>45939.39905092592</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>45882.51865740741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>45882.67761574074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>45167.46049768518</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27839,7 +27839,7 @@
         <v>45365</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>45155.64881944445</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>45938.50130787037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>45632.53740740741</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>45939.37894675926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>45320.37047453703</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>45939.54582175926</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>45478.37251157407</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>45520.63755787037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>44624.64258101852</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>45562</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>45943.44037037037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>45614.39525462963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>45682</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>45945.46814814815</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>45945.65936342593</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44971.844375</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45945.69332175926</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44974.689375</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>45884.56103009259</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>45629.55097222222</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>44578.43134259259</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>44523</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>44926.86648148148</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29222,7 +29222,7 @@
         <v>45950.48333333333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         <v>45952.58738425926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>45952.58931712963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45596.27090277777</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>45324.41423611111</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>45176</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44931.47987268519</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>45952.5883912037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>44853.33546296296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>45509.48924768518</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>44328</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>44651.45693287037</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>45959.6683912037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>45649.31149305555</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>45958.59887731481</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>45959.66505787037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>45958.5975</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>45959.66606481482</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>45959.66734953703</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>45958.59641203703</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>45523.59328703704</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>45097</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>45961.5391087963</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>44867.59962962963</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>45250</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>45358.36603009259</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45960</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>44749.2853125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>45961.48788194444</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45961.48866898148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44578.43416666667</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45965.43381944444</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>45599.49332175926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45008</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45964.48415509259</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>45963.89556712963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45611.37390046296</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>45616.66825231481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45967.49642361111</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>45966</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>45966</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45966</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>45966.7572337963</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>45235.92984953704</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>45966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>45966</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45669.86645833333</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>45966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>45675.65545138889</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>44986</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>44449.59364583333</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>45968</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>45968</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>45204</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>45971.63806712963</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>45971.63587962963</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>45938.59599537037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>45930.38884259259</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>45084.55328703704</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45973.32774305555</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44433.52033564815</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45973.65106481482</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>45973.32962962963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45973.33491898148</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45973.33396990741</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45973.67756944444</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>45174</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>45974.39765046296</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>45975.25318287037</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>45975.28063657408</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>45974.53975694445</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45978.58315972222</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>45978.57663194444</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>45978.5775462963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>45978.58413194444</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>45607.46381944444</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>44607</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33656,7 +33656,7 @@
         <v>45978.5783912037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33713,7 +33713,7 @@
         <v>45978.2849537037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>45978.57325231482</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>45978.57445601852</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>45978.57554398148</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>45979.54875</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33998,7 +33998,7 @@
         <v>45545.59177083334</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34055,7 +34055,7 @@
         <v>45981.6109375</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45982.35988425926</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45982.35376157407</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45629.53239583333</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45985.45640046296</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45985.44362268518</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45985.44444444445</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45629.53693287037</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45345</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>44497.69635416667</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34625,7 +34625,7 @@
         <v>44931.48320601852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34682,7 +34682,7 @@
         <v>45484.66706018519</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34744,7 +34744,7 @@
         <v>45989.57273148148</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34801,7 +34801,7 @@
         <v>45989.57479166667</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>45427.536875</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>45337.6000462963</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>45603.50640046296</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>46034.4402662037</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>45316.60839120371</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>45993.55738425926</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>46034.42356481482</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44903</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>45645.65525462963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44265</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>46036.47013888889</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>46036.47262731481</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>46041.59646990741</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>46041.5991087963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>46041.60510416667</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>45588.64974537037</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>45475.85295138889</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44909.51429398148</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44455.39747685185</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44456.30787037037</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>45425.70068287037</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>46041.61112268519</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>46041.61418981481</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45273</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>46043.53336805556</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>46043.53753472222</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>45009.62383101852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>45161.52252314815</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>44866.60233796296</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>44588.71358796296</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>46002.29491898148</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>45331.43564814814</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36697,7 +36697,7 @@
         <v>44812.36215277778</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36754,7 +36754,7 @@
         <v>45520.63675925926</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>45520.63895833334</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>46003.51923611111</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>45555.7990625</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>45390.36922453704</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>46007.39284722223</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>45678.614375</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>45523.59434027778</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>45624.40318287037</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>45042.4808449074</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44949</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44501</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44581.43232638889</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37510,7 +37510,7 @@
         <v>45155.48686342593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37567,7 +37567,7 @@
         <v>44926.84900462963</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>46009.43173611111</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>46008.45582175926</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44729.35767361111</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>46008.4480787037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>46009.65202546296</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>46009.65649305555</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>46009.65739583333</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>46049</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>44818</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>46051.4491087963</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>46009.62508101852</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>45135</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>46009.65802083333</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>45000.32324074074</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>46009.58130787037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>46009.58384259259</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>46009.62381944444</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>46009.62628472222</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>46009.63271990741</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>46051.60989583333</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>46009.62263888889</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>45282.41629629629</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44749.27438657408</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>45749</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>45169.40534722222</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44748</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>46052.47851851852</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>45581.47037037037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>45702.40304398148</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39297,7 +39297,7 @@
         <v>45770</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39354,7 +39354,7 @@
         <v>44776.39636574074</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39411,7 +39411,7 @@
         <v>45096.61005787037</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39468,7 +39468,7 @@
         <v>45675.64688657408</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>44971</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>44971</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45062</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39701,7 +39701,7 @@
         <v>46056.30408564815</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39758,7 +39758,7 @@
         <v>45084</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39820,7 +39820,7 @@
         <v>45603.46451388889</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39877,7 +39877,7 @@
         <v>45603.47803240741</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39934,7 +39934,7 @@
         <v>44498</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>45509.48142361111</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40048,7 +40048,7 @@
         <v>44917</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40110,7 +40110,7 @@
         <v>44915.72001157407</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40167,7 +40167,7 @@
         <v>45366</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40229,7 +40229,7 @@
         <v>45092</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40286,7 +40286,7 @@
         <v>45447.29674768518</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40343,7 +40343,7 @@
         <v>44265.62462962963</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>45595.84672453703</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>45702.40969907407</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45717.4099074074</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45717.41087962963</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44551.85696759259</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45400.34746527778</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>44739.59894675926</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45726.333125</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45637</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>44893</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>44938.54009259259</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41037,7 +41037,7 @@
         <v>45427.53611111111</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41094,7 +41094,7 @@
         <v>46065.4044212963</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41151,7 +41151,7 @@
         <v>44910</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41208,7 +41208,7 @@
         <v>45553.67296296296</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41265,7 +41265,7 @@
         <v>45282</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>46069.36435185185</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41379,7 +41379,7 @@
         <v>45331.43622685185</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41436,7 +41436,7 @@
         <v>46069.634375</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41493,7 +41493,7 @@
         <v>44606</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41550,7 +41550,7 @@
         <v>45574.50712962963</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41607,7 +41607,7 @@
         <v>44302.48252314814</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41664,7 +41664,7 @@
         <v>46071.46810185185</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41721,7 +41721,7 @@
         <v>45250</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41778,7 +41778,7 @@
         <v>45515.49909722222</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41835,7 +41835,7 @@
         <v>45672.39741898148</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41892,7 +41892,7 @@
         <v>45190.67278935185</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41949,7 +41949,7 @@
         <v>44501</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42006,7 +42006,7 @@
         <v>45579.38944444444</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42063,7 +42063,7 @@
         <v>45726.88983796296</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42120,7 +42120,7 @@
         <v>45264.56972222222</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42177,7 +42177,7 @@
         <v>45709.46761574074</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42239,7 +42239,7 @@
         <v>46073.65424768518</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42296,7 +42296,7 @@
         <v>45211.55890046297</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42353,7 +42353,7 @@
         <v>45775.47288194444</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42410,7 +42410,7 @@
         <v>45730.58918981482</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42467,7 +42467,7 @@
         <v>45259.33623842592</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42524,7 +42524,7 @@
         <v>44496</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42581,7 +42581,7 @@
         <v>45315.47256944444</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42638,7 +42638,7 @@
         <v>45534.6444675926</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42700,7 +42700,7 @@
         <v>45534.64615740741</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42762,7 +42762,7 @@
         <v>45672.39876157408</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42819,7 +42819,7 @@
         <v>45317</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42876,7 +42876,7 @@
         <v>44935</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>45110</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>45611.35309027778</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>45231.36464120371</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>45089.80048611111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45709</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45350.48736111111</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45488</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45737.4858912037</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43404,7 +43404,7 @@
         <v>45573</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         <v>45708.39555555556</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43518,7 +43518,7 @@
         <v>45365.32019675926</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43575,7 +43575,7 @@
         <v>44456</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43632,7 +43632,7 @@
         <v>44250</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43689,7 +43689,7 @@
         <v>45744.60837962963</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43751,7 +43751,7 @@
         <v>45199.8639699074</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43808,7 +43808,7 @@
         <v>44379</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43865,7 +43865,7 @@
         <v>45635.55659722222</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43922,7 +43922,7 @@
         <v>45187</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43979,7 +43979,7 @@
         <v>45607.50462962963</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44036,7 +44036,7 @@
         <v>44757.63770833334</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>45468.70416666667</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44150,7 +44150,7 @@
         <v>45717.37655092592</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44207,7 +44207,7 @@
         <v>45717.39528935185</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44264,7 +44264,7 @@
         <v>45594.46626157407</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44321,7 +44321,7 @@
         <v>45125.4228125</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44378,7 +44378,7 @@
         <v>44896.51383101852</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44435,7 +44435,7 @@
         <v>45596.27725694444</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44492,7 +44492,7 @@
         <v>45177</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44549,7 +44549,7 @@
         <v>45708.39626157407</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44606,7 +44606,7 @@
         <v>45364.31883101852</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>45231</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44720,7 +44720,7 @@
         <v>45425.70412037037</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44777,7 +44777,7 @@
         <v>45251</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44834,7 +44834,7 @@
         <v>45097</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44891,7 +44891,7 @@
         <v>44817.7231712963</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44948,7 +44948,7 @@
         <v>45100</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45005,7 +45005,7 @@
         <v>45558.493125</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45062,7 +45062,7 @@
         <v>45706.65204861111</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45119,7 +45119,7 @@
         <v>45706.66072916667</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45176,7 +45176,7 @@
         <v>45770.56298611111</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45233,7 +45233,7 @@
         <v>45544.44743055556</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>44551.8628587963</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>44502.31447916666</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45404,7 +45404,7 @@
         <v>45545.58944444444</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45461,7 +45461,7 @@
         <v>44896.52641203703</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45518,7 +45518,7 @@
         <v>45545.5222337963</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45545.52599537037</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         <v>44378</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45689,7 +45689,7 @@
         <v>45176</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45751,7 +45751,7 @@
         <v>45509.55731481482</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45808,7 +45808,7 @@
         <v>45702.42722222222</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45870,7 +45870,7 @@
         <v>45702.42866898148</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45932,7 +45932,7 @@
         <v>45328.46501157407</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45989,7 +45989,7 @@
         <v>44802</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46046,7 +46046,7 @@
         <v>45110</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46103,7 +46103,7 @@
         <v>45026</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46160,7 +46160,7 @@
         <v>45163.7199537037</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>44711.95481481482</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>45699.70453703704</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45349</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>45273.7587037037</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>45112</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46507,7 +46507,7 @@
         <v>45607.48710648148</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45754.43040509259</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         <v>45615.27533564815</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46683,7 +46683,7 @@
         <v>45711</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46740,7 +46740,7 @@
         <v>44362.65372685185</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46797,7 +46797,7 @@
         <v>45495.88708333333</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46854,7 +46854,7 @@
         <v>45223.61922453704</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46911,7 +46911,7 @@
         <v>45167.33456018518</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46968,7 +46968,7 @@
         <v>45488</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47025,7 +47025,7 @@
         <v>45764.39450231481</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47082,7 +47082,7 @@
         <v>45726.90060185185</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47139,7 +47139,7 @@
         <v>45418.35512731481</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47196,7 +47196,7 @@
         <v>44943.56219907408</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47253,7 +47253,7 @@
         <v>45222.35112268518</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47310,7 +47310,7 @@
         <v>45117.35921296296</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47367,7 +47367,7 @@
         <v>45484.65953703703</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47429,7 +47429,7 @@
         <v>45100.56320601852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47486,7 +47486,7 @@
         <v>45687.61872685186</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47543,7 +47543,7 @@
         <v>45726.8953587963</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47600,7 +47600,7 @@
         <v>44776.36688657408</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47657,7 +47657,7 @@
         <v>45189</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47714,7 +47714,7 @@
         <v>44488</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47776,7 +47776,7 @@
         <v>45764.38697916667</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47833,7 +47833,7 @@
         <v>45721</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47890,7 +47890,7 @@
         <v>45777.50840277778</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47947,7 +47947,7 @@
         <v>45777.36719907408</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48004,7 +48004,7 @@
         <v>45777.51238425926</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48061,7 +48061,7 @@
         <v>45782.58153935185</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48118,7 +48118,7 @@
         <v>45782.56547453703</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48175,7 +48175,7 @@
         <v>45783.62003472223</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48232,7 +48232,7 @@
         <v>45488.70516203704</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48289,7 +48289,7 @@
         <v>45365.65672453704</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>45624.55962962963</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48408,7 +48408,7 @@
         <v>45637.55875</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48465,7 +48465,7 @@
         <v>45785.68796296296</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48527,7 +48527,7 @@
         <v>45785.69043981482</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48589,7 +48589,7 @@
         <v>45784.66596064815</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48646,7 +48646,7 @@
         <v>45784.66774305556</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48703,7 +48703,7 @@
         <v>45639.60168981482</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48760,7 +48760,7 @@
         <v>45511</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48817,7 +48817,7 @@
         <v>45678.63623842593</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48874,7 +48874,7 @@
         <v>45790.36791666667</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45792.75988425926</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48988,7 +48988,7 @@
         <v>45793.33966435185</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49045,7 +49045,7 @@
         <v>45559.59489583333</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49102,7 +49102,7 @@
         <v>44873</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49164,7 +49164,7 @@
         <v>45552.49181712963</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         <v>44977</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49278,7 +49278,7 @@
         <v>45797.60055555555</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49335,7 +49335,7 @@
         <v>45481</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49392,7 +49392,7 @@
         <v>45796.62123842593</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49449,7 +49449,7 @@
         <v>45729.41030092593</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         <v>45799.53121527778</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49563,7 +49563,7 @@
         <v>45727.73561342592</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49620,7 +49620,7 @@
         <v>45740.73518518519</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49677,7 +49677,7 @@
         <v>45736.47740740741</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49734,7 +49734,7 @@
         <v>45729.40451388889</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49791,7 +49791,7 @@
         <v>45729.40857638889</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49848,7 +49848,7 @@
         <v>45736.47576388889</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49905,7 +49905,7 @@
         <v>45737.48658564815</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49967,7 +49967,7 @@
         <v>45735.58962962963</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50024,7 +50024,7 @@
         <v>45727.61900462963</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50081,7 +50081,7 @@
         <v>45728.48721064815</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45728.48363425926</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50205,7 +50205,7 @@
         <v>45494</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50262,7 +50262,7 @@
         <v>45735.59598379629</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50319,7 +50319,7 @@
         <v>45730.52662037037</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50376,7 +50376,7 @@
         <v>45733.54864583333</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50433,7 +50433,7 @@
         <v>45733.55269675926</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50490,7 +50490,7 @@
         <v>45803.34383101852</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>45804.61609953704</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50604,7 +50604,7 @@
         <v>45804.61944444444</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         <v>45805.34600694444</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50718,7 +50718,7 @@
         <v>45804.62068287037</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50775,7 +50775,7 @@
         <v>45804.65353009259</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50832,7 +50832,7 @@
         <v>45804.61416666667</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50889,7 +50889,7 @@
         <v>45810</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         <v>45273.71439814815</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51003,7 +51003,7 @@
         <v>45617.44547453704</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51060,7 +51060,7 @@
         <v>45198</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51122,7 +51122,7 @@
         <v>45810.34222222222</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51179,7 +51179,7 @@
         <v>45810.34775462963</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51236,7 +51236,7 @@
         <v>45812.61347222222</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51293,7 +51293,7 @@
         <v>45812.65081018519</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51350,7 +51350,7 @@
         <v>45811.78976851852</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51407,7 +51407,7 @@
         <v>45813.5249537037</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51464,7 +51464,7 @@
         <v>45811.92189814815</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51521,7 +51521,7 @@
         <v>45813.55363425926</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51578,7 +51578,7 @@
         <v>45813.55480324074</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51635,7 +51635,7 @@
         <v>45817.02725694444</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51692,7 +51692,7 @@
         <v>45817.46300925926</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -575,7 +575,7 @@
         <v>45187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45232</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45993.5589699074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45509.44369212963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45770.56108796296</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45400.47915509259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45798.47107638889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45425.41545138889</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45905.440625</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45917</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45717.39260416666</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44977</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>45558</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44760</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44742.43836805555</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45728.47916666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44284</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44575</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44441.59993055555</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44810</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44386.86407407407</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>44575</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>44266.62798611111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44250</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44378.3903587963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44358.30866898148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44508</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44353</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44323</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44358.34570601852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44417.62429398148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>44250</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44866.60554398148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44266.49640046297</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44529.56993055555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44615</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44802</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44802</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44802</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44578.43284722222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44353.85783564814</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44817.72686342592</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44547.36016203704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44887.39527777778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44284</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44824.59596064815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44378.38956018518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44767.45964120371</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44273</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44495</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44845.47885416666</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44365</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44873.58728009259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44358.29576388889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44273.57444444444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44425.57732638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44428</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44287.49908564815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44272.63491898148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44355</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44305</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44414.48363425926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44824.59288194445</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44406</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44585.71317129629</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44715</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44358.29001157408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44606.55068287037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44544.51118055556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44809</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44739.48693287037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>44594.62553240741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44473.5024537037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44473.50425925926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44748</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44488</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44558.62664351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44840</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44614</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44867.59149305556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44467</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44285</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44400</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44802</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44344.39539351852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44855.44949074074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44571.74010416667</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44371</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44606</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44840</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44638.52920138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44343</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44454.32325231482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44735</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44273</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44358.31386574074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44353</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44353</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44662.24118055555</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44563</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44606.55320601852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44753.28717592593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44454</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44550.52243055555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44365.48976851852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44544</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>44550.52158564814</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>44482.31039351852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>44945.46364583333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>45385.33501157408</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>45364.56442129629</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>44803</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44551.88674768519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>45212.6421875</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44340.41997685185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44489</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>45590.61549768518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>45093</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>45414.78167824074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>45119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>45585.91030092593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>45735.51754629629</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45212.61796296296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>45357.42123842592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>45008.49725694444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45360.80607638889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>45337.58814814815</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44791</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>45191</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44894</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>45174</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45730.51931712963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>45772.79462962963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>45680.55241898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45635.63982638889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44840.48019675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45503.29950231482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>45719.68841435185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>45719.69400462963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>45737.48446759259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>45404.46775462963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>45404.475</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44951.68246527778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44432.60353009259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>45758.3190625</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44558.65225694444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44365.59041666667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44952</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44853.68696759259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>45517</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>45331.43450231481</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44739.59581018519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>45322</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>45355.35863425926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>45163</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>45545.52421296296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>45715.37373842593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>45482</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44455.47987268519</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44594.61658564815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>45709</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44553.46798611111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44711</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44931</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44883</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45054.39552083334</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44356</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>45642.95520833333</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>45244.68857638889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>45511</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44986</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>45264</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45629.55606481482</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45211.5600462963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44657.63938657408</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45400.32546296297</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>45385.33305555556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44896</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>45266.4074537037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44275.78903935185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>45735.57356481482</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>45735.5909375</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>45198</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>45588.65200231481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>45698.3561574074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44974.69614583333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44489</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>45818</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45104.60037037037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45884.57325231482</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45819.71221064815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45607.49489583333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>45818.39450231481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44840.48739583333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>45748.85103009259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>45753.41890046297</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>45159.39725694444</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>45820.52103009259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>45582.30001157407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>45771.47091435185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>45615.26976851852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45824.32594907407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>45706.58354166667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>45889.65611111111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>45687.62136574074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>45687.62925925926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>45824.3162037037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>45825.56981481481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>45825.5734837963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45889.6637962963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>44860</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>45235</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45813.53417824074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44867.32956018519</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>45824.50456018518</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>45888.36394675926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>45889.64594907407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45825.52016203704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>45825.57106481482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>45887.80711805556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44516</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>45827.36391203704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44820.44133101852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>45498.32634259259</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>45838.92648148148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>44396.55261574074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>45264</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>45826.31435185186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14887,7 +14887,7 @@
         <v>45831.4978125</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>45831.33459490741</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>45831.37350694444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>45831.57614583334</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>45831.34222222222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44302</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>45699.70334490741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45702.40758101852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45204.60837962963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45831.33755787037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45897.55211805556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>45832.85799768518</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>45720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>45520</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>45520</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44896</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>45190</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>45717.37541666667</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>45831.36936342593</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>45900.71957175926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>45561.30137731481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>45629.54733796296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45898</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45833.59633101852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45790.3634375</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45901.38729166667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45678.64009259259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44563</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44271.52563657407</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45118.70503472222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>45902.47337962963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45902.6129050926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45904.45391203704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45730.51604166667</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45730.59303240741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>45735.50659722222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>45607.50800925926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>45905.43704861111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>45908.56534722223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>44441.59430555555</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>45908.84606481482</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45840.43755787037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45905</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>45910.59189814814</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45709.7199537037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45910.57027777778</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45838.43341435185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>45840.55556712963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>45182.71399305556</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>45666.56546296296</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>44923.29418981481</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>45910.23809027778</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>45911.42458333333</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45845.62190972222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45845.61696759259</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>45845.62030092593</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>45845.62399305555</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>45882.63118055555</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>45790.35498842593</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18275,7 +18275,7 @@
         <v>45910.24565972222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>45630.59774305556</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>45910.58902777778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45187</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>45912.5659837963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>45845.61859953704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>44519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>45912.26643518519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>45348.67282407408</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>45596.27261574074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>45848.45236111111</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>45637</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45916.35369212963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45916.35141203704</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>45917.63487268519</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44297.76318287037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>45358.37159722222</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>45011.93555555555</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>45829.46525462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>45916.34912037037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45852.32833333333</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45712.55626157407</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45331.43362268519</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>45852.29828703704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45852.31815972222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45559.59590277778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45852.34857638889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>45852.35935185185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>45352.35792824074</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45852.30655092592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45852.30929398148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>45852.32268518519</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>45852.31328703704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>45852.35208333333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>45855.28050925926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45772.8017824074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>45918.61972222223</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45918.50519675926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>45764.38414351852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>45918.66293981481</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45796.43293981482</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>45754</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>45922</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>45701.66265046296</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44952</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>45497.58564814815</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45863.58912037037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>45735.57248842593</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45924.37596064815</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45863.47493055555</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45716</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45717.39690972222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44721</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45530</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>45159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>44712</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44712</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21544,7 +21544,7 @@
         <v>44739.49780092593</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>45191</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>45191</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21715,7 +21715,7 @@
         <v>45849.82788194445</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>45842.46525462963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>44908.46491898148</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>44322.45649305556</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45009</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>45395.4094675926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>45395.41248842593</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45211.56078703704</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45721.47709490741</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45113</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>44432.75258101852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>44447.38280092592</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>44333.36237268519</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>44970.59005787037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>44812.63449074074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>44273.58916666666</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45790.36645833333</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45189.56726851852</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45498</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45665.54670138889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>44735.44400462963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44712</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45722.48475694445</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44447.38677083333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44958.65167824074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23197,7 +23197,7 @@
         <v>45395.40734953704</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>45518.69004629629</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>45301</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44392.62262731481</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>45873.36478009259</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44496.62851851852</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>45100.55548611111</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45873.36563657408</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>45930.38706018519</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>45465.49680555556</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44333.36072916666</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>45870.51346064815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23886,7 +23886,7 @@
         <v>45465.70548611111</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>45465.63829861111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44469.49696759259</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45607</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>45611.37762731482</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44958.65390046296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>45465.64491898148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44389.58666666667</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>45465.64028935185</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>45465.70149305555</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>45931.62858796296</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>45395.4044212963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>45077.67440972223</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>45245.55140046297</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>45930.38502314815</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45320.61409722222</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>45931.61349537037</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>45931.61493055556</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>45931.62996527777</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>45931.63064814815</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>45931.63251157408</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>45931.59466435185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>45671.52005787037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>45931.6143287037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>45931.63344907408</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>45933.58989583333</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>45875.33354166667</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>45246.62707175926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>45933.66685185185</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
         <v>45933.67023148148</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>45876.33436342593</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>45933.66932870371</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45933.67203703704</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>45876.41993055555</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>44501</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44894</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>45880.63071759259</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>45462.43791666667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26129,7 +26129,7 @@
         <v>44588.70157407408</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>45588.59636574074</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45880.4121875</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>45880.41001157407</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>45880.63387731482</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45881.35246527778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45258.40917824074</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>45882.63306712963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>45882.74145833333</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>45511</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>45882.38854166667</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>45937.5018287037</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>45882.37444444445</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>45882.3959375</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>45937.52125</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26984,7 +26984,7 @@
         <v>45937.62362268518</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>45937.52329861111</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>45937.525</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>45936</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27212,7 +27212,7 @@
         <v>45882.36873842592</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>45027</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27326,7 +27326,7 @@
         <v>45936.80734953703</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27383,7 +27383,7 @@
         <v>45936.80887731481</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27440,7 +27440,7 @@
         <v>45415.24046296296</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44880.44614583333</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>45882.73533564815</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>45939.39905092592</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>45882.51865740741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>45882.67761574074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>45167.46049768518</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27839,7 +27839,7 @@
         <v>45365</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>45155.64881944445</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>45938.50130787037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>45632.53740740741</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>45939.37894675926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>45320.37047453703</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>45939.54582175926</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>45478.37251157407</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>45520.63755787037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>44624.64258101852</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>45562</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>45943.44037037037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>45614.39525462963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>45682</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>45945.46814814815</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>45945.65936342593</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44971.844375</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45945.69332175926</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44974.689375</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>45884.56103009259</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>45629.55097222222</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>44578.43134259259</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>44523</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>44926.86648148148</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29222,7 +29222,7 @@
         <v>45950.48333333333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         <v>45952.58738425926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>45952.58931712963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45596.27090277777</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>45324.41423611111</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>45176</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44931.47987268519</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>45952.5883912037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>44853.33546296296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>45509.48924768518</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>44328</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>44651.45693287037</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>45959.6683912037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>45649.31149305555</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>45958.59887731481</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>45959.66505787037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>45958.5975</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>45959.66606481482</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>45959.66734953703</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>45958.59641203703</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>45523.59328703704</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>45097</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>45961.5391087963</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>44867.59962962963</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>45250</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>45358.36603009259</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45960</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>44749.2853125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>45961.48788194444</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45961.48866898148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44578.43416666667</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45965.43381944444</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>45599.49332175926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45008</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45964.48415509259</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>45963.89556712963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45611.37390046296</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>45616.66825231481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45967.49642361111</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>45966</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>45966</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45966</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>45966.7572337963</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>45235.92984953704</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>45966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>45966</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45669.86645833333</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>45966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>45675.65545138889</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>44986</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>44449.59364583333</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>45968</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         <v>45968</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>45204</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>45971.63806712963</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>45971.63587962963</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>45938.59599537037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>45930.38884259259</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>45084.55328703704</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45973.32774305555</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44433.52033564815</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45973.65106481482</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>45973.32962962963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45973.33491898148</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45973.33396990741</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45973.67756944444</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>45174</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>45974.39765046296</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>45975.25318287037</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>45975.28063657408</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>45974.53975694445</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45978.58315972222</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>45978.57663194444</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>45978.5775462963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>45978.58413194444</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>45607.46381944444</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>44607</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33656,7 +33656,7 @@
         <v>45978.5783912037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33713,7 +33713,7 @@
         <v>45978.2849537037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>45978.57325231482</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>45978.57445601852</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>45978.57554398148</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>45979.54875</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33998,7 +33998,7 @@
         <v>45545.59177083334</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34055,7 +34055,7 @@
         <v>45981.6109375</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45982.35988425926</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45982.35376157407</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45629.53239583333</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45985.45640046296</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45985.44362268518</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45985.44444444445</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45629.53693287037</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45345</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>44497.69635416667</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34625,7 +34625,7 @@
         <v>44931.48320601852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34682,7 +34682,7 @@
         <v>45484.66706018519</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34744,7 +34744,7 @@
         <v>45989.57273148148</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34801,7 +34801,7 @@
         <v>45989.57479166667</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>45427.536875</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>45337.6000462963</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>45603.50640046296</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>46034.4402662037</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>45316.60839120371</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>45993.55738425926</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>46034.42356481482</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44903</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>45645.65525462963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44265</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>46036.47013888889</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>46036.47262731481</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>46041.59646990741</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>46041.5991087963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>46041.60510416667</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>45588.64974537037</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>45475.85295138889</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44909.51429398148</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44455.39747685185</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44456.30787037037</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>45425.70068287037</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>46041.61112268519</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>46041.61418981481</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45273</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>46043.53336805556</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>46043.53753472222</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>45009.62383101852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>45161.52252314815</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>44866.60233796296</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>44588.71358796296</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>46002.29491898148</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>45331.43564814814</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36697,7 +36697,7 @@
         <v>44812.36215277778</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36754,7 +36754,7 @@
         <v>45520.63675925926</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>45520.63895833334</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>46003.51923611111</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>45555.7990625</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>45390.36922453704</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>46007.39284722223</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>45678.614375</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>45523.59434027778</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>45624.40318287037</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>45042.4808449074</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44949</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44501</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44581.43232638889</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37510,7 +37510,7 @@
         <v>45155.48686342593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37567,7 +37567,7 @@
         <v>44926.84900462963</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>46009.43173611111</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>46008.45582175926</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44729.35767361111</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>46008.4480787037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>46009.65202546296</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>46009.65649305555</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>46009.65739583333</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>46049</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>44818</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>46051.4491087963</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>46009.62508101852</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>45135</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>46009.65802083333</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>45000.32324074074</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>46009.58130787037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>46009.58384259259</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>46009.62381944444</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>46009.62628472222</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>46009.63271990741</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>46051.60989583333</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>46009.62263888889</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>45282.41629629629</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44749.27438657408</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>45749</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>45169.40534722222</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44748</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>46052.47851851852</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>45581.47037037037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>45702.40304398148</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39297,7 +39297,7 @@
         <v>45770</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39354,7 +39354,7 @@
         <v>44776.39636574074</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39411,7 +39411,7 @@
         <v>45096.61005787037</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39468,7 +39468,7 @@
         <v>45675.64688657408</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>44971</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>44971</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45062</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39701,7 +39701,7 @@
         <v>46056.30408564815</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39758,7 +39758,7 @@
         <v>45084</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39820,7 +39820,7 @@
         <v>45603.46451388889</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39877,7 +39877,7 @@
         <v>45603.47803240741</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39934,7 +39934,7 @@
         <v>44498</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>45509.48142361111</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40048,7 +40048,7 @@
         <v>44917</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40110,7 +40110,7 @@
         <v>44915.72001157407</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40167,7 +40167,7 @@
         <v>45366</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40229,7 +40229,7 @@
         <v>45092</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40286,7 +40286,7 @@
         <v>45447.29674768518</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40343,7 +40343,7 @@
         <v>44265.62462962963</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>45595.84672453703</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>45702.40969907407</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45717.4099074074</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>45717.41087962963</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44551.85696759259</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45400.34746527778</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>44739.59894675926</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45726.333125</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>45637</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>44893</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>44938.54009259259</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41037,7 +41037,7 @@
         <v>45427.53611111111</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41094,7 +41094,7 @@
         <v>46065.4044212963</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41151,7 +41151,7 @@
         <v>44910</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41208,7 +41208,7 @@
         <v>45553.67296296296</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41265,7 +41265,7 @@
         <v>45282</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>46069.36435185185</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41379,7 +41379,7 @@
         <v>45331.43622685185</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41436,7 +41436,7 @@
         <v>46069.634375</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41493,7 +41493,7 @@
         <v>44606</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41550,7 +41550,7 @@
         <v>45574.50712962963</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41607,7 +41607,7 @@
         <v>44302.48252314814</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41664,7 +41664,7 @@
         <v>46071.46810185185</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41721,7 +41721,7 @@
         <v>45250</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41778,7 +41778,7 @@
         <v>45515.49909722222</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41835,7 +41835,7 @@
         <v>45672.39741898148</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41892,7 +41892,7 @@
         <v>45190.67278935185</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41949,7 +41949,7 @@
         <v>44501</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42006,7 +42006,7 @@
         <v>45579.38944444444</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42063,7 +42063,7 @@
         <v>45726.88983796296</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42120,7 +42120,7 @@
         <v>45264.56972222222</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42177,7 +42177,7 @@
         <v>45709.46761574074</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42239,7 +42239,7 @@
         <v>46073.65424768518</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42296,7 +42296,7 @@
         <v>45211.55890046297</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42353,7 +42353,7 @@
         <v>45775.47288194444</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42410,7 +42410,7 @@
         <v>45730.58918981482</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42467,7 +42467,7 @@
         <v>45259.33623842592</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42524,7 +42524,7 @@
         <v>44496</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42581,7 +42581,7 @@
         <v>45315.47256944444</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42638,7 +42638,7 @@
         <v>45534.6444675926</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42700,7 +42700,7 @@
         <v>45534.64615740741</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42762,7 +42762,7 @@
         <v>45672.39876157408</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42819,7 +42819,7 @@
         <v>45317</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42876,7 +42876,7 @@
         <v>44935</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>45110</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>45611.35309027778</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>45231.36464120371</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>45089.80048611111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45709</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45350.48736111111</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45488</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45737.4858912037</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43404,7 +43404,7 @@
         <v>45573</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         <v>45708.39555555556</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43518,7 +43518,7 @@
         <v>45365.32019675926</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43575,7 +43575,7 @@
         <v>44456</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43632,7 +43632,7 @@
         <v>44250</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43689,7 +43689,7 @@
         <v>45744.60837962963</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43751,7 +43751,7 @@
         <v>45199.8639699074</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43808,7 +43808,7 @@
         <v>44379</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43865,7 +43865,7 @@
         <v>45635.55659722222</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43922,7 +43922,7 @@
         <v>45187</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43979,7 +43979,7 @@
         <v>45607.50462962963</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44036,7 +44036,7 @@
         <v>44757.63770833334</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>45468.70416666667</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44150,7 +44150,7 @@
         <v>45717.37655092592</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44207,7 +44207,7 @@
         <v>45717.39528935185</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44264,7 +44264,7 @@
         <v>45594.46626157407</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44321,7 +44321,7 @@
         <v>45125.4228125</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44378,7 +44378,7 @@
         <v>44896.51383101852</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44435,7 +44435,7 @@
         <v>45596.27725694444</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44492,7 +44492,7 @@
         <v>45177</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44549,7 +44549,7 @@
         <v>45708.39626157407</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44606,7 +44606,7 @@
         <v>45364.31883101852</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>45231</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44720,7 +44720,7 @@
         <v>45425.70412037037</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44777,7 +44777,7 @@
         <v>45251</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44834,7 +44834,7 @@
         <v>45097</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44891,7 +44891,7 @@
         <v>44817.7231712963</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44948,7 +44948,7 @@
         <v>45100</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45005,7 +45005,7 @@
         <v>45558.493125</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45062,7 +45062,7 @@
         <v>45706.65204861111</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45119,7 +45119,7 @@
         <v>45706.66072916667</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45176,7 +45176,7 @@
         <v>45770.56298611111</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45233,7 +45233,7 @@
         <v>45544.44743055556</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>44551.8628587963</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>44502.31447916666</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45404,7 +45404,7 @@
         <v>45545.58944444444</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45461,7 +45461,7 @@
         <v>44896.52641203703</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45518,7 +45518,7 @@
         <v>45545.5222337963</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45545.52599537037</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         <v>44378</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45689,7 +45689,7 @@
         <v>45176</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45751,7 +45751,7 @@
         <v>45509.55731481482</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45808,7 +45808,7 @@
         <v>45702.42722222222</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45870,7 +45870,7 @@
         <v>45702.42866898148</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45932,7 +45932,7 @@
         <v>45328.46501157407</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45989,7 +45989,7 @@
         <v>44802</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46046,7 +46046,7 @@
         <v>45110</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46103,7 +46103,7 @@
         <v>45026</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46160,7 +46160,7 @@
         <v>45163.7199537037</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>44711.95481481482</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>45699.70453703704</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45349</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>45273.7587037037</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>45112</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46507,7 +46507,7 @@
         <v>45607.48710648148</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45754.43040509259</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         <v>45615.27533564815</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46683,7 +46683,7 @@
         <v>45711</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46740,7 +46740,7 @@
         <v>44362.65372685185</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46797,7 +46797,7 @@
         <v>45495.88708333333</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46854,7 +46854,7 @@
         <v>45223.61922453704</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46911,7 +46911,7 @@
         <v>45167.33456018518</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46968,7 +46968,7 @@
         <v>45488</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47025,7 +47025,7 @@
         <v>45764.39450231481</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47082,7 +47082,7 @@
         <v>45726.90060185185</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47139,7 +47139,7 @@
         <v>45418.35512731481</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47196,7 +47196,7 @@
         <v>44943.56219907408</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47253,7 +47253,7 @@
         <v>45222.35112268518</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47310,7 +47310,7 @@
         <v>45117.35921296296</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47367,7 +47367,7 @@
         <v>45484.65953703703</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47429,7 +47429,7 @@
         <v>45100.56320601852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47486,7 +47486,7 @@
         <v>45687.61872685186</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47543,7 +47543,7 @@
         <v>45726.8953587963</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47600,7 +47600,7 @@
         <v>44776.36688657408</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47657,7 +47657,7 @@
         <v>45189</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47714,7 +47714,7 @@
         <v>44488</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47776,7 +47776,7 @@
         <v>45764.38697916667</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47833,7 +47833,7 @@
         <v>45721</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47890,7 +47890,7 @@
         <v>45777.50840277778</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47947,7 +47947,7 @@
         <v>45777.36719907408</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48004,7 +48004,7 @@
         <v>45777.51238425926</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48061,7 +48061,7 @@
         <v>45782.58153935185</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48118,7 +48118,7 @@
         <v>45782.56547453703</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48175,7 +48175,7 @@
         <v>45783.62003472223</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48232,7 +48232,7 @@
         <v>45488.70516203704</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48289,7 +48289,7 @@
         <v>45365.65672453704</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>45624.55962962963</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48408,7 +48408,7 @@
         <v>45637.55875</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48465,7 +48465,7 @@
         <v>45785.68796296296</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48527,7 +48527,7 @@
         <v>45785.69043981482</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48589,7 +48589,7 @@
         <v>45784.66596064815</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48646,7 +48646,7 @@
         <v>45784.66774305556</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48703,7 +48703,7 @@
         <v>45639.60168981482</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48760,7 +48760,7 @@
         <v>45511</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48817,7 +48817,7 @@
         <v>45678.63623842593</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48874,7 +48874,7 @@
         <v>45790.36791666667</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45792.75988425926</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48988,7 +48988,7 @@
         <v>45793.33966435185</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49045,7 +49045,7 @@
         <v>45559.59489583333</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49102,7 +49102,7 @@
         <v>44873</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49164,7 +49164,7 @@
         <v>45552.49181712963</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         <v>44977</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49278,7 +49278,7 @@
         <v>45797.60055555555</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49335,7 +49335,7 @@
         <v>45481</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49392,7 +49392,7 @@
         <v>45796.62123842593</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49449,7 +49449,7 @@
         <v>45729.41030092593</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         <v>45799.53121527778</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49563,7 +49563,7 @@
         <v>45727.73561342592</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49620,7 +49620,7 @@
         <v>45740.73518518519</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49677,7 +49677,7 @@
         <v>45736.47740740741</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49734,7 +49734,7 @@
         <v>45729.40451388889</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49791,7 +49791,7 @@
         <v>45729.40857638889</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49848,7 +49848,7 @@
         <v>45736.47576388889</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49905,7 +49905,7 @@
         <v>45737.48658564815</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49967,7 +49967,7 @@
         <v>45735.58962962963</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50024,7 +50024,7 @@
         <v>45727.61900462963</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50081,7 +50081,7 @@
         <v>45728.48721064815</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45728.48363425926</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50205,7 +50205,7 @@
         <v>45494</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50262,7 +50262,7 @@
         <v>45735.59598379629</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50319,7 +50319,7 @@
         <v>45730.52662037037</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50376,7 +50376,7 @@
         <v>45733.54864583333</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50433,7 +50433,7 @@
         <v>45733.55269675926</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50490,7 +50490,7 @@
         <v>45803.34383101852</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>45804.61609953704</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50604,7 +50604,7 @@
         <v>45804.61944444444</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         <v>45805.34600694444</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50718,7 +50718,7 @@
         <v>45804.62068287037</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50775,7 +50775,7 @@
         <v>45804.65353009259</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50832,7 +50832,7 @@
         <v>45804.61416666667</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50889,7 +50889,7 @@
         <v>45810</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         <v>45273.71439814815</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51003,7 +51003,7 @@
         <v>45617.44547453704</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51060,7 +51060,7 @@
         <v>45198</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51122,7 +51122,7 @@
         <v>45810.34222222222</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51179,7 +51179,7 @@
         <v>45810.34775462963</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51236,7 +51236,7 @@
         <v>45812.61347222222</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51293,7 +51293,7 @@
         <v>45812.65081018519</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51350,7 +51350,7 @@
         <v>45811.78976851852</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51407,7 +51407,7 @@
         <v>45813.5249537037</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51464,7 +51464,7 @@
         <v>45811.92189814815</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51521,7 +51521,7 @@
         <v>45813.55363425926</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51578,7 +51578,7 @@
         <v>45813.55480324074</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51635,7 +51635,7 @@
         <v>45817.02725694444</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51692,7 +51692,7 @@
         <v>45817.46300925926</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>

--- a/Översikt GISLAVED.xlsx
+++ b/Översikt GISLAVED.xlsx
@@ -575,7 +575,7 @@
         <v>45187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45232</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45770.56108796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>45993.5589699074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45509.44369212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>45400.47915509259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45798.47107638889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44760</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45905.440625</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44965</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>45917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45717.39260416666</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>45425.41545138889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44530</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>44742.43836805555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44977</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>45558</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45728.47916666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44284</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44575</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44378.3903587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44441.59993055555</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>44810</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>44386.86407407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44266.62798611111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44358.30866898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44508</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44353</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44323</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44358.34570601852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44648</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44417.62429398148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44866.60554398148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>44266.49640046297</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44529.56993055555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44615</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44802</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44802</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44578.43284722222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44353.85783564814</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44507</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44817.72686342592</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44547.36016203704</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44887.39527777778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44386</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44824.59596064815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44284</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44378.38956018518</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44767.45964120371</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44273</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44845.47885416666</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44495</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44365</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44358.29576388889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44873.58728009259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44273.57444444444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44425.57732638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44428</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44287.49908564815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44355</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44272.63491898148</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44824.59288194445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44414.48363425926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>44446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44406</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44715</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44585.71317129629</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44358.29001157408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44606.55068287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44544.51118055556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44809</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44594.62553240741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44739.48693287037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>44473.5024537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44473.50425925926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44488</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44558.62664351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44867.59149305556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44467</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44285</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44400</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44802</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44344.39539351852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44855.44949074074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44571.74010416667</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44371</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44606</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44299</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44638.52920138889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44343</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44454.32325231482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44273</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44735</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44358.31386574074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44662.24118055555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44353</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44353</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44563</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44606.55320601852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44753.28717592593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44606</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44550.52243055555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44365.48976851852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44544</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44550.52158564814</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>45717.4099074074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>45717.41087962963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>44791</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>44818</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>45322</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>45702.42866898148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>45324.41423611111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>44489</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>45110</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>44739.59894675926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>45345</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>45385.33305555556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44866.60233796296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>45211.56078703704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44297.76318287037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44356</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>45100.55548611111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45400.34746527778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>45427.53611111111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44952</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45737.4858912037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45187</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>45093</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>45558.493125</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>44551.85696759259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>45418.35512731481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>44455.47987268519</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>45400.32546296297</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>45364.31883101852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>44362.65372685185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>44812.36215277778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>45465.49680555556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45596.27261574074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45497.58564814815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>45515.49909722222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>45607.48710648148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44893</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>45273.7587037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>45235.92984953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44853.68696759259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>45427.536875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44923.29418981481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44523</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>45530</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>45629.53239583333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>45488</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44896.52641203703</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44488</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>45545.58944444444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>45282</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>44516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>45092</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>45611.37390046296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44551.8628587963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>45884.56103009259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>45805.34600694444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>45358.36603009259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44935</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45810.34222222222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>45810.34775462963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>45517</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44938.54009259259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>45887.80711805556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44840.48739583333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>45617.44547453704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>45273.71439814815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>45198</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>45810</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>45813.53417824074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>45629.55097222222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>45555.7990625</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45706.58354166667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>45607.49489583333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>45888.36394675926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>45811.92189814815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>45812.65081018519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>45812.61347222222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45811.78976851852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45889.65611111111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44896</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>45889.64594907407</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>45813.55363425926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>45813.55480324074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>45813.5249537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>45889.6637962963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45817.46300925926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>45753.41890046297</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>45748.85103009259</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44951.68246527778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>45488</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>45817.02725694444</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>45818.39450231481</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>45838.92648148148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45198</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45818</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45011.93555555555</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45630.59774305556</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45819.71221064815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45331.43362268519</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45155.64881944445</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45246.62707175926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45820.52103009259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45824.3162037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45582.30001157407</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45824.50456018518</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45824.32594907407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45826.31435185186</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45825.56981481481</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45825.5734837963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44943.56219907408</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45825.52016203704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45720</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45898</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>45825.57106481482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>45897.55211805556</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44578.43134259259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>45827.36391203704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>45629.54733796296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>45902.6129050926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44432.60353009259</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>45561.30137731481</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>45901.38729166667</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>45902.47337962963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45900.71957175926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>45498.32634259259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45831.37350694444</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>45790.3634375</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>45447.29674768518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44926.86648148148</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44433.52033564815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44748</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>45831.34222222222</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44986</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>45831.33459490741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44271.52563657407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>45831.4978125</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>45904.45391203704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>45831.57614583334</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>45831.33755787037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>45908.56534722223</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>45320.61409722222</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45599.49332175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>45832.85799768518</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45772.79462962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>45833.59633101852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>45191</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>45831.36936342593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>45735.5909375</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44749.2853125</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>45905.43704861111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>45112</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45594.46626157407</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>45425.70412037037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>45910.59189814814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>45840.55556712963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>45355.35863425926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>45840.43755787037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>45717.37541666667</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>45348.67282407408</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45908.84606481482</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>45671.52005787037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>45910.57027777778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>45905</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>45579.38944444444</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>45117.35921296296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>45910.24565972222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>45629.55606481482</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45910.58902777778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45042.4808449074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>45910.23809027778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45603.50640046296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45611.35309027778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45911.42458333333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>45912.26643518519</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>45588.59636574074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>45588.65200231481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>44867.32956018519</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>45845.61696759259</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>45845.62030092593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>45845.62399305555</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44853.33546296296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>45790.35498842593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>44497.69635416667</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>45026</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>45845.62190972222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>45912.5659837963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>45845.61859953704</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>45706.65204861111</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45706.66072916667</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45672.39741898148</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>44498</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>45882.63118055555</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>45848.45236111111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>45084.55328703704</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45838.43341435185</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45916.35141203704</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45916.35369212963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>45852.30655092592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45852.30929398148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45852.32268518519</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45000.32324074074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45027</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>45852.31328703704</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45852.34857638889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45852.35935185185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>45167.33456018518</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>45852.35208333333</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45852.29828703704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>45852.31815972222</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>45852.32833333333</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45829.46525462963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>44974.689375</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>45916.34912037037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>45855.28050925926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>45096.61005787037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>45796.43293981482</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>45701.66265046296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45754</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>45615.27533564815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>45712.55626157407</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>45918.61972222223</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>45917.63487268519</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45918.66293981481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45918.50519675926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>45708.39626157407</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>45163</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45922</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45863.47493055555</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45113</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>45863.58912037037</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>44721</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>45924.37596064815</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>44729.35767361111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44396.55261574074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45711</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45870.51346064815</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>44265</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>45465.64028935185</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21715,7 +21715,7 @@
         <v>45465.70548611111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>45518.69004629629</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>45722.48475694445</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>45645.65525462963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45465.70149305555</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45930.38502314815</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>45611.37762731482</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>45849.82788194445</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45607</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45395.4094675926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45395.41248842593</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>44970.59005787037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45465.63829861111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>45465.64491898148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>45498</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>45721.47709490741</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45930.38706018519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44392.62262731481</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44322.45649305556</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45077.67440972223</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>44739.49780092593</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>44333.36237268519</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44333.36072916666</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45790.36645833333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44958.65390046296</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44496.62851851852</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23197,7 +23197,7 @@
         <v>44273.58916666666</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>44908.46491898148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44447.38280092592</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44469.49696759259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>45245.55140046297</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>45632.53740740741</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>45189.56726851852</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45395.4044212963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>45395.40734953704</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>45931.61349537037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>45931.61493055556</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>45931.63251157408</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>45873.36478009259</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45931.62858796296</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45175</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>45931.59466435185</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44810</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44712</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>44447.38677083333</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44712</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44432.75258101852</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44389.58666666667</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>45119</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>45842.46525462963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>45873.36563657408</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44958.65167824074</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45665.54670138889</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44812.63449074074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45301</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>45876.33436342593</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45876.41993055555</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45875.33354166667</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>45880.41001157407</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45880.63071759259</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>45008.49725694444</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45880.63387731482</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>45680.55241898148</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>45880.4121875</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45545.52421296296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>45475.85295138889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>45882.73533564815</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44482.31039351852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>45882.38854166667</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44926.84900462963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44365.59041666667</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45882.63306712963</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45637</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45882.36873842592</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45882.67761574074</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>45931.62996527777</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>45931.63064814815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>45415.24046296296</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>44757.63770833334</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26275,7 +26275,7 @@
         <v>45882.37444444445</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         <v>45882.3959375</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26389,7 +26389,7 @@
         <v>45882.51865740741</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26446,7 +26446,7 @@
         <v>45931.6143287037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26503,7 +26503,7 @@
         <v>45881.35246527778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         <v>45882.74145833333</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26617,7 +26617,7 @@
         <v>45770</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26674,7 +26674,7 @@
         <v>45931.63344907408</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         <v>45933.66932870371</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44817.7231712963</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>45687.62136574074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>45687.62925925926</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>45730.51931712963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44711.95481481482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>45716</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>45717.39690972222</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>45933.66685185185</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>45933.58989583333</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44894</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>45358.37159722222</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>45933.67023148148</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>45933.67203703704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         <v>44379</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>45937.5018287037</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27663,7 +27663,7 @@
         <v>45273</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27720,7 +27720,7 @@
         <v>45937.52329861111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>45937.525</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>45155.48686342593</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>45937.62362268518</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45936.80734953703</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>45936.80887731481</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>45735.51754629629</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>45509.48142361111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>45749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28238,7 +28238,7 @@
         <v>45937.52125</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>44840.48019675926</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>45936</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>45414.78167824074</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>45231</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45771.47091435185</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>45938.50130787037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45939.39905092592</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>45251</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45939.54582175926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45939.37894675926</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45534.6444675926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28927,7 +28927,7 @@
         <v>45534.64615740741</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>45702.40758101852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>45764.38414351852</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>45884.57325231482</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>45264.56972222222</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29222,7 +29222,7 @@
         <v>45744.60837962963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>45520.63675925926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>45520.63895833334</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45331.43450231481</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45331.43622685185</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45425.70068287037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45943.44037037037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44501</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44501</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>45945.46814814815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44896.51383101852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>45945.65936342593</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>45945.69332175926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29978,7 +29978,7 @@
         <v>45950.48333333333</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30035,7 +30035,7 @@
         <v>44867.59962962963</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>45211.5600462963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>45737.48446759259</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30211,7 +30211,7 @@
         <v>44651.45693287037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44802</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>45573</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>45952.5883912037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>45952.58738425926</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45952.58931712963</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>45349</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44896</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>45222.35112268518</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45337.58814814815</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45495.88708333333</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45726.88983796296</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>45726.8953587963</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44986</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>45316.60839120371</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44971</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44971</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>45958.5975</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>45758.3190625</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>45958.59887731481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>45958.59641203703</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>45959.66606481482</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>45959.66734953703</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>44974.69614583333</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45960</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>45959.6683912037</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45250</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>45084</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>45365.32019675926</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>45959.66505787037</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         <v>45961.5391087963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32070,7 +32070,7 @@
         <v>45961.48788194444</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>45961.48866898148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>45963.89556712963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>45964.48415509259</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45966</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>45966</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>44551.88674768519</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>44553.46798611111</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32526,7 +32526,7 @@
         <v>45966</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>45966</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45966</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>45966</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32754,7 +32754,7 @@
         <v>45965.43381944444</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32811,7 +32811,7 @@
         <v>44910</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>45559.59590277778</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>45930.38884259259</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45938.59599537037</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45104.60037037037</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33096,7 +33096,7 @@
         <v>45062</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>45337.6000462963</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>45966.7572337963</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33267,7 +33267,7 @@
         <v>45967.49642361111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33324,7 +33324,7 @@
         <v>45968</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>45968</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>45971.63587962963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>45545.5222337963</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>45545.52599537037</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>44860</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45971.63806712963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45167.46049768518</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>45973.65106481482</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>45973.32962962963</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33894,7 +33894,7 @@
         <v>45973.33491898148</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33951,7 +33951,7 @@
         <v>45973.67756944444</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34008,7 +34008,7 @@
         <v>45973.32774305555</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34065,7 +34065,7 @@
         <v>45973.33396990741</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34122,7 +34122,7 @@
         <v>45482</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34179,7 +34179,7 @@
         <v>45974.53975694445</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34236,7 +34236,7 @@
         <v>45478.37251157407</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>45615.26976851852</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>45974.39765046296</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>44489</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45978.2849537037</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45975.25318287037</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>45975.28063657408</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45978.57554398148</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45978.5783912037</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45978.57325231482</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>45978.58315972222</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>45978.58413194444</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>45666.56546296296</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>45596.27090277777</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35034,7 +35034,7 @@
         <v>45588.64974537037</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35091,7 +35091,7 @@
         <v>45365</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45978.57445601852</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45616.66825231481</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45978.57663194444</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45978.5775462963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45979.54875</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44558.65225694444</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45390.36922453704</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45702.40969907407</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35614,7 +35614,7 @@
         <v>45702.42722222222</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>45981.6109375</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44496</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>45177</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>45982.35376157407</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45982.35988425926</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>44581.43232638889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36023,7 +36023,7 @@
         <v>45985.45640046296</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36080,7 +36080,7 @@
         <v>45544.44743055556</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>45484.66706018519</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>45985.44362268518</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>45985.44444444445</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>45585.91030092593</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>45509.55731481482</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>45089.80048611111</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36489,7 +36489,7 @@
         <v>45204.60837962963</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         <v>45054.39552083334</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36603,7 +36603,7 @@
         <v>45204</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>45629.53693287037</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>45678.614375</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>45635.63982638889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36831,7 +36831,7 @@
         <v>45199.8639699074</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36888,7 +36888,7 @@
         <v>45719.68841435185</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
         <v>45719.69400462963</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>44578.43416666667</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37059,7 +37059,7 @@
         <v>45503.29950231482</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37116,7 +37116,7 @@
         <v>45989.57273148148</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37173,7 +37173,7 @@
         <v>45989.57479166667</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37230,7 +37230,7 @@
         <v>45993.55738425926</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37292,7 +37292,7 @@
         <v>45328.46501157407</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37349,7 +37349,7 @@
         <v>45189</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37406,7 +37406,7 @@
         <v>45545.59177083334</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37463,7 +37463,7 @@
         <v>46041.5991087963</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37520,7 +37520,7 @@
         <v>46041.60510416667</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37577,7 +37577,7 @@
         <v>46041.59646990741</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37634,7 +37634,7 @@
         <v>46041.61112268519</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37691,7 +37691,7 @@
         <v>46041.61418981481</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37748,7 +37748,7 @@
         <v>44606</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37805,7 +37805,7 @@
         <v>45730.51604166667</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>45730.59303240741</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>45169.40534722222</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>44594.61658564815</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>46043.53336805556</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>45100.56320601852</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>45614.39525462963</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>45231.36464120371</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>46002.29491898148</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45687.61872685186</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>45404.46775462963</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>45404.475</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
         <v>45607.50800925926</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>46043.53753472222</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>45675.64688657408</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>45708.39555555556</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>46003.51923611111</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38784,7 +38784,7 @@
         <v>45244.68857638889</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38841,7 +38841,7 @@
         <v>45702.40304398148</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45624.40318287037</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>46008.45582175926</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>46008.4480787037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45721</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>46049</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>46007.39284722223</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>44657.63938657408</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45511</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45523.59434027778</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45259.33623842592</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>46009.62508101852</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45642.95520833333</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>46009.63271990741</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39644,7 +39644,7 @@
         <v>45698.3561574074</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39701,7 +39701,7 @@
         <v>44265.62462962963</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39758,7 +39758,7 @@
         <v>45211.55890046297</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39815,7 +39815,7 @@
         <v>46052.47851851852</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39872,7 +39872,7 @@
         <v>46009.43173611111</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39929,7 +39929,7 @@
         <v>46009.65202546296</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         <v>46009.65649305555</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>46009.65739583333</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40100,7 +40100,7 @@
         <v>46009.58130787037</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>46009.58384259259</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40224,7 +40224,7 @@
         <v>46009.62381944444</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
         <v>46009.62628472222</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>46009.62263888889</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40395,7 +40395,7 @@
         <v>46051.4491087963</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40452,7 +40452,7 @@
         <v>46051.60989583333</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40509,7 +40509,7 @@
         <v>46009.65802083333</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>45772.8017824074</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44735.44400462963</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>45699.70453703704</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>44776.39636574074</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44711</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40851,7 +40851,7 @@
         <v>45176</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>46056.30408564815</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>45581.47037037037</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>45735.50659722222</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>45212.61796296296</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>44275.78903935185</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44903</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>45235</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>45735.57356481482</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>45159</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>45110</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44909.51429398148</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>44739.59581018519</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>44820.44133101852</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45315.47256944444</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45317</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45190.67278935185</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45357.42123842592</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45264</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45715.37373842593</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45250</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45163.7199537037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42120,7 +42120,7 @@
         <v>45176</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42182,7 +42182,7 @@
         <v>45366</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42244,7 +42244,7 @@
         <v>44923</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42301,7 +42301,7 @@
         <v>46065.4044212963</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42358,7 +42358,7 @@
         <v>45125.4228125</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42415,7 +42415,7 @@
         <v>46069.36435185185</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42472,7 +42472,7 @@
         <v>46069.634375</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42529,7 +42529,7 @@
         <v>46071.46810185185</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42586,7 +42586,7 @@
         <v>45264</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         <v>45523.59328703704</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42700,7 +42700,7 @@
         <v>45520</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42762,7 +42762,7 @@
         <v>45520</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>45775.47288194444</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>45360.80607638889</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>44971.844375</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>46034.42356481482</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>46034.4402662037</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45520.63755787037</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45553.67296296296</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>44588.70157407408</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>44952</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45331.43564814814</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45764.38697916667</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45637</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45282.41629629629</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>46036.47262731481</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>44456</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>44455.39747685185</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43741,7 +43741,7 @@
         <v>46073.65424768518</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43798,7 +43798,7 @@
         <v>46036.47013888889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>44441.59430555555</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>44803</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43974,7 +43974,7 @@
         <v>44340.41997685185</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44031,7 +44031,7 @@
         <v>44302</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44088,7 +44088,7 @@
         <v>44915.72001157407</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44145,7 +44145,7 @@
         <v>44502.31447916666</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>46079</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44264,7 +44264,7 @@
         <v>46079</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44326,7 +44326,7 @@
         <v>46080.42688657407</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44383,7 +44383,7 @@
         <v>45161.52252314815</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44440,7 +44440,7 @@
         <v>45159.39725694444</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44502,7 +44502,7 @@
         <v>44328</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44559,7 +44559,7 @@
         <v>45590.61549768518</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44621,7 +44621,7 @@
         <v>45350.48736111111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44678,7 +44678,7 @@
         <v>45511</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44735,7 +44735,7 @@
         <v>45182.71399305556</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44792,7 +44792,7 @@
         <v>45364.56442129629</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>45595.84672453703</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44906,7 +44906,7 @@
         <v>45574.50712962963</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44963,7 +44963,7 @@
         <v>45462.43791666667</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45020,7 +45020,7 @@
         <v>44378</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45077,7 +45077,7 @@
         <v>45009.62383101852</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45134,7 +45134,7 @@
         <v>44456.30787037037</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45191,7 +45191,7 @@
         <v>45097</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45248,7 +45248,7 @@
         <v>45669.86645833333</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45305,7 +45305,7 @@
         <v>45008</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45362,7 +45362,7 @@
         <v>45174</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45419,7 +45419,7 @@
         <v>45717.37655092592</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45476,7 +45476,7 @@
         <v>45717.39528935185</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>45678.64009259259</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45590,7 +45590,7 @@
         <v>45009</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45647,7 +45647,7 @@
         <v>44749.27438657408</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45704,7 +45704,7 @@
         <v>44949</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45761,7 +45761,7 @@
         <v>45607.50462962963</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45818,7 +45818,7 @@
         <v>44880.44614583333</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
         <v>45097</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45932,7 +45932,7 @@
         <v>44894</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45989,7 +45989,7 @@
         <v>44931.48320601852</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46046,7 +46046,7 @@
         <v>44931.47987268519</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46103,7 +46103,7 @@
         <v>45709</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46165,7 +46165,7 @@
         <v>45735.57248842593</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>45223.61922453704</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>45770.56298611111</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45385.33501157408</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>45675.65545138889</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46455,7 +46455,7 @@
         <v>45764.39450231481</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>44776.36688657408</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46569,7 +46569,7 @@
         <v>45596.27725694444</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         <v>45258.40917824074</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46683,7 +46683,7 @@
         <v>45100</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46740,7 +46740,7 @@
         <v>45174</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46797,7 +46797,7 @@
         <v>45191</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46854,7 +46854,7 @@
         <v>45191</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46911,7 +46911,7 @@
         <v>45190</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -46968,7 +46968,7 @@
         <v>44449.59364583333</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47025,7 +47025,7 @@
         <v>44302.48252314814</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47082,7 +47082,7 @@
         <v>45187</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47139,7 +47139,7 @@
         <v>45352.35792824074</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47196,7 +47196,7 @@
         <v>45320.37047453703</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47253,7 +47253,7 @@
         <v>45607.46381944444</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47310,7 +47310,7 @@
         <v>45509.48924768518</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47367,7 +47367,7 @@
         <v>45726.333125</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47424,7 +47424,7 @@
         <v>45726.90060185185</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47481,7 +47481,7 @@
         <v>44883</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47538,7 +47538,7 @@
         <v>45709</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47600,7 +47600,7 @@
         <v>45709.7199537037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47657,7 +47657,7 @@
         <v>45266.4074537037</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47714,7 +47714,7 @@
         <v>45468.70416666667</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47771,7 +47771,7 @@
         <v>45118.70503472222</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47828,7 +47828,7 @@
         <v>45649.31149305555</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47885,7 +47885,7 @@
         <v>44931</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -47942,7 +47942,7 @@
         <v>44624.64258101852</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -47999,7 +47999,7 @@
         <v>45635.55659722222</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48056,7 +48056,7 @@
         <v>45562</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48118,7 +48118,7 @@
         <v>45699.70334490741</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48175,7 +48175,7 @@
         <v>45709.46761574074</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>44588.71358796296</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48294,7 +48294,7 @@
         <v>45682</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>45212.6421875</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48408,7 +48408,7 @@
         <v>45672.39876157408</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48465,7 +48465,7 @@
         <v>45603.46451388889</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48522,7 +48522,7 @@
         <v>45603.47803240741</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48579,7 +48579,7 @@
         <v>45730.58918981482</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48636,7 +48636,7 @@
         <v>45754.43040509259</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48698,7 +48698,7 @@
         <v>44945.46364583333</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48755,7 +48755,7 @@
         <v>45484.65953703703</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48817,7 +48817,7 @@
         <v>45777.36719907408</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48874,7 +48874,7 @@
         <v>45777.51238425926</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45777.50840277778</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -48988,7 +48988,7 @@
         <v>45782.58153935185</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49045,7 +49045,7 @@
         <v>45782.56547453703</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49102,7 +49102,7 @@
         <v>45784.66596064815</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49159,7 +49159,7 @@
         <v>45365.65672453704</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         <v>45784.66774305556</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49278,7 +49278,7 @@
         <v>45783.62003472223</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49335,7 +49335,7 @@
         <v>45624.55962962963</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49392,7 +49392,7 @@
         <v>45639.60168981482</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49449,7 +49449,7 @@
         <v>45785.69043981482</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49511,7 +49511,7 @@
         <v>45637.55875</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49568,7 +49568,7 @@
         <v>45785.68796296296</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45511</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>45678.63623842593</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>45488.70516203704</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>45790.36791666667</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>44873</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49920,7 +49920,7 @@
         <v>44977</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>45793.33966435185</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50034,7 +50034,7 @@
         <v>45559.59489583333</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50091,7 +50091,7 @@
         <v>45481</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50148,7 +50148,7 @@
         <v>45792.75988425926</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50205,7 +50205,7 @@
         <v>45796.62123842593</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50262,7 +50262,7 @@
         <v>45552.49181712963</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50319,7 +50319,7 @@
         <v>45729.40451388889</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50376,7 +50376,7 @@
         <v>45729.40857638889</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50433,7 +50433,7 @@
         <v>45729.41030092593</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50490,7 +50490,7 @@
         <v>45737.48658564815</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50552,7 +50552,7 @@
         <v>45736.47740740741</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50609,7 +50609,7 @@
         <v>45730.52662037037</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>45494</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50723,7 +50723,7 @@
         <v>45727.61900462963</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50780,7 +50780,7 @@
         <v>45728.48721064815</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50842,7 +50842,7 @@
         <v>45728.48363425926</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50904,7 +50904,7 @@
         <v>45735.59598379629</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -50961,7 +50961,7 @@
         <v>45736.47576388889</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51018,7 +51018,7 @@
         <v>45727.73561342592</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51075,7 +51075,7 @@
         <v>45797.60055555555</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51132,7 +51132,7 @@
         <v>45740.73518518519</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51189,7 +51189,7 @@
         <v>45735.58962962963</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51246,7 +51246,7 @@
         <v>45733.54864583333</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51303,7 +51303,7 @@
         <v>45733.55269675926</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51360,7 +51360,7 @@
         <v>45799.53121527778</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51417,7 +51417,7 @@
         <v>45804.61416666667</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51474,7 +51474,7 @@
         <v>45804.61609953704</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51531,7 +51531,7 @@
         <v>45804.61944444444</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51588,7 +51588,7 @@
         <v>45804.62068287037</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51645,7 +51645,7 @@
         <v>45804.65353009259</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -51702,7 +51702,7 @@
         <v>45803.34383101852</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
